--- a/Saving2024.xlsx
+++ b/Saving2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josec\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0B967F-7B86-4775-88D5-2AAA7FE59DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B355C353-A682-4E6F-9252-CAF0934A00E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="237">
   <si>
     <t>Comprador</t>
   </si>
@@ -326,9 +326,6 @@
   </si>
   <si>
     <t>PITTA SEGURANÇA</t>
-  </si>
-  <si>
-    <t>05/012024</t>
   </si>
   <si>
     <t>SOTEL LOCAÇÃO DE RÁDIOS</t>
@@ -1956,10 +1953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L391"/>
+  <dimension ref="A1:L390"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B366" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E389"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A366" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="A390" sqref="A390:XFD390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4897,8 +4894,8 @@
       <c r="A97" s="14">
         <v>3700</v>
       </c>
-      <c r="B97" s="69" t="s">
-        <v>95</v>
+      <c r="B97" s="69">
+        <v>45296</v>
       </c>
       <c r="C97" s="70" t="s">
         <v>65</v>
@@ -4907,7 +4904,7 @@
         <v>13</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F97" s="75">
         <v>10735</v>
@@ -4926,7 +4923,7 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98" s="69">
         <v>45329</v>
@@ -4938,7 +4935,7 @@
         <v>13</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F98" s="75">
         <v>129000</v>
@@ -4969,7 +4966,7 @@
         <v>13</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F99" s="75">
         <v>80752.42</v>
@@ -5000,7 +4997,7 @@
         <v>13</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F100" s="75">
         <v>2000</v>
@@ -5031,7 +5028,7 @@
         <v>13</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F101" s="75">
         <v>10340</v>
@@ -5062,7 +5059,7 @@
         <v>13</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F102" s="75">
         <v>25970</v>
@@ -5083,7 +5080,9 @@
       <c r="A103" s="14">
         <v>37004419</v>
       </c>
-      <c r="B103" s="69"/>
+      <c r="B103" s="69">
+        <v>45296</v>
+      </c>
       <c r="C103" s="70" t="s">
         <v>65</v>
       </c>
@@ -5091,7 +5090,7 @@
         <v>13</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F103" s="75">
         <v>15000</v>
@@ -5122,7 +5121,7 @@
         <v>13</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F104" s="75">
         <v>8736</v>
@@ -5153,7 +5152,7 @@
         <v>13</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F105" s="75">
         <v>22500</v>
@@ -5172,7 +5171,7 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B106" s="69">
         <v>45537</v>
@@ -5184,7 +5183,7 @@
         <v>13</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F106" s="75">
         <v>20631.5</v>
@@ -5216,7 +5215,7 @@
         <v>13</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F107" s="75">
         <v>10900</v>
@@ -5278,7 +5277,7 @@
         <v>19</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F109" s="75">
         <v>12500</v>
@@ -5340,7 +5339,7 @@
         <v>19</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F111" s="75">
         <v>21115.33</v>
@@ -5371,7 +5370,7 @@
         <v>19</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F112" s="75">
         <v>2216.15</v>
@@ -5390,7 +5389,7 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B113" s="69">
         <v>45348</v>
@@ -5402,7 +5401,7 @@
         <v>19</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F113" s="75">
         <v>18823.099999999999</v>
@@ -5434,7 +5433,7 @@
         <v>19</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F114" s="75">
         <v>16929.2</v>
@@ -5465,7 +5464,7 @@
         <v>19</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F115" s="75">
         <v>6300</v>
@@ -5496,7 +5495,7 @@
         <v>19</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F116" s="75">
         <v>19919.5</v>
@@ -5515,7 +5514,7 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B117" s="69">
         <v>45359</v>
@@ -5527,7 +5526,7 @@
         <v>19</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F117" s="75">
         <v>9668.93</v>
@@ -5559,7 +5558,7 @@
         <v>19</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F118" s="75">
         <v>2663.7</v>
@@ -5578,7 +5577,7 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B119" s="69">
         <v>45425</v>
@@ -5590,7 +5589,7 @@
         <v>19</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F119" s="75">
         <v>8067.6</v>
@@ -5609,7 +5608,7 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B120" s="69">
         <v>45426</v>
@@ -5621,7 +5620,7 @@
         <v>19</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F120" s="75">
         <v>6927.5</v>
@@ -5652,7 +5651,7 @@
         <v>10</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F121" s="75">
         <v>33770</v>
@@ -5671,7 +5670,7 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B122" s="69">
         <v>45441</v>
@@ -5683,7 +5682,7 @@
         <v>19</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F122" s="75">
         <v>32732.5</v>
@@ -5714,7 +5713,7 @@
         <v>19</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F123" s="75">
         <v>358000</v>
@@ -5745,7 +5744,7 @@
         <v>19</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F124" s="75">
         <v>3790</v>
@@ -5776,7 +5775,7 @@
         <v>19</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F125" s="75">
         <v>31500</v>
@@ -5807,7 +5806,7 @@
         <v>19</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F126" s="75">
         <f>220*25.52</f>
@@ -5827,7 +5826,7 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B127" s="69">
         <v>45482</v>
@@ -5839,7 +5838,7 @@
         <v>19</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F127" s="75">
         <v>25601.95</v>
@@ -5870,7 +5869,7 @@
         <v>19</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F128" s="75">
         <v>5615</v>
@@ -5901,7 +5900,7 @@
         <v>19</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F129" s="75">
         <v>10906.2</v>
@@ -5926,13 +5925,13 @@
         <v>45366</v>
       </c>
       <c r="C130" s="70" t="s">
+        <v>130</v>
+      </c>
+      <c r="D130" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="E130" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="D130" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="E130" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="F130" s="77">
         <v>2526</v>
@@ -5957,13 +5956,13 @@
         <v>45369</v>
       </c>
       <c r="C131" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D131" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F131" s="77">
         <v>18135</v>
@@ -5988,13 +5987,13 @@
         <v>45376</v>
       </c>
       <c r="C132" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D132" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F132" s="77">
         <v>12490.04</v>
@@ -6019,13 +6018,13 @@
         <v>45376</v>
       </c>
       <c r="C133" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D133" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F133" s="77">
         <v>82745</v>
@@ -6050,13 +6049,13 @@
         <v>45376</v>
       </c>
       <c r="C134" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D134" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F134" s="77">
         <v>12800</v>
@@ -6081,13 +6080,13 @@
         <v>45377</v>
       </c>
       <c r="C135" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D135" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F135" s="77">
         <v>35880.94</v>
@@ -6112,13 +6111,13 @@
         <v>45384</v>
       </c>
       <c r="C136" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D136" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F136" s="77">
         <v>6000</v>
@@ -6143,13 +6142,13 @@
         <v>45384</v>
       </c>
       <c r="C137" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D137" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F137" s="77">
         <v>1530</v>
@@ -6174,13 +6173,13 @@
         <v>45385</v>
       </c>
       <c r="C138" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D138" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F138" s="77">
         <v>78300</v>
@@ -6205,13 +6204,13 @@
         <v>45385</v>
       </c>
       <c r="C139" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D139" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F139" s="77">
         <v>6500</v>
@@ -6236,13 +6235,13 @@
         <v>45390</v>
       </c>
       <c r="C140" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D140" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F140" s="77">
         <v>15890.25</v>
@@ -6267,13 +6266,13 @@
         <v>45391</v>
       </c>
       <c r="C141" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D141" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F141" s="77">
         <v>8120</v>
@@ -6298,13 +6297,13 @@
         <v>45391</v>
       </c>
       <c r="C142" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D142" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F142" s="77">
         <v>2445</v>
@@ -6329,13 +6328,13 @@
         <v>45392</v>
       </c>
       <c r="C143" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D143" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F143" s="77">
         <v>4450</v>
@@ -6360,13 +6359,13 @@
         <v>45393</v>
       </c>
       <c r="C144" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D144" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F144" s="77">
         <v>7968</v>
@@ -6391,13 +6390,13 @@
         <v>45393</v>
       </c>
       <c r="C145" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D145" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F145" s="77">
         <v>7671.76</v>
@@ -6422,13 +6421,13 @@
         <v>45398</v>
       </c>
       <c r="C146" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D146" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F146" s="77">
         <v>9720</v>
@@ -6453,13 +6452,13 @@
         <v>45441</v>
       </c>
       <c r="C147" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D147" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F147" s="77">
         <v>24500</v>
@@ -6484,13 +6483,13 @@
         <v>45441</v>
       </c>
       <c r="C148" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D148" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F148" s="77">
         <v>13395</v>
@@ -6515,13 +6514,13 @@
         <v>45441</v>
       </c>
       <c r="C149" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D149" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F149" s="77">
         <v>742.5</v>
@@ -6546,13 +6545,13 @@
         <v>45441</v>
       </c>
       <c r="C150" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D150" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F150" s="79">
         <v>1575</v>
@@ -6577,13 +6576,13 @@
         <v>45446</v>
       </c>
       <c r="C151" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D151" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F151" s="77">
         <v>36409.800000000003</v>
@@ -6608,13 +6607,13 @@
         <v>45448</v>
       </c>
       <c r="C152" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D152" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F152" s="77">
         <v>30771</v>
@@ -6639,13 +6638,13 @@
         <v>45448</v>
       </c>
       <c r="C153" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D153" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F153" s="77">
         <v>9900</v>
@@ -6670,13 +6669,13 @@
         <v>45462</v>
       </c>
       <c r="C154" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D154" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F154" s="77">
         <v>6882.5</v>
@@ -6701,13 +6700,13 @@
         <v>45464</v>
       </c>
       <c r="C155" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D155" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F155" s="77">
         <v>41900</v>
@@ -6732,13 +6731,13 @@
         <v>45465</v>
       </c>
       <c r="C156" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D156" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F156" s="77">
         <v>24940</v>
@@ -6763,13 +6762,13 @@
         <v>45467</v>
       </c>
       <c r="C157" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D157" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F157" s="77">
         <v>12938.5</v>
@@ -6794,13 +6793,13 @@
         <v>45468</v>
       </c>
       <c r="C158" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D158" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F158" s="77">
         <v>3976.79</v>
@@ -6825,13 +6824,13 @@
         <v>45468</v>
       </c>
       <c r="C159" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D159" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F159" s="77">
         <v>6152.05</v>
@@ -6856,13 +6855,13 @@
         <v>45470</v>
       </c>
       <c r="C160" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D160" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F160" s="77">
         <v>17484.5</v>
@@ -6887,13 +6886,13 @@
         <v>45470</v>
       </c>
       <c r="C161" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D161" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F161" s="77">
         <v>8990</v>
@@ -6918,13 +6917,13 @@
         <v>45471</v>
       </c>
       <c r="C162" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D162" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F162" s="77">
         <v>20880</v>
@@ -6949,13 +6948,13 @@
         <v>45471</v>
       </c>
       <c r="C163" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D163" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F163" s="77">
         <v>5488</v>
@@ -6980,13 +6979,13 @@
         <v>45476</v>
       </c>
       <c r="C164" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D164" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F164" s="77">
         <v>17305</v>
@@ -7011,13 +7010,13 @@
         <v>45488</v>
       </c>
       <c r="C165" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D165" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F165" s="77">
         <v>276570</v>
@@ -7042,13 +7041,13 @@
         <v>45490</v>
       </c>
       <c r="C166" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D166" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F166" s="77">
         <v>2445</v>
@@ -7073,13 +7072,13 @@
         <v>45491</v>
       </c>
       <c r="C167" s="70" t="s">
+        <v>130</v>
+      </c>
+      <c r="D167" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="E167" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="D167" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="E167" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="F167" s="77">
         <v>7825</v>
@@ -7104,13 +7103,13 @@
         <v>45491</v>
       </c>
       <c r="C168" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D168" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F168" s="77">
         <v>2249.25</v>
@@ -7135,13 +7134,13 @@
         <v>45492</v>
       </c>
       <c r="C169" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D169" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E169" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F169" s="77">
         <v>22500</v>
@@ -7166,13 +7165,13 @@
         <v>45495</v>
       </c>
       <c r="C170" s="70" t="s">
+        <v>130</v>
+      </c>
+      <c r="D170" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="E170" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="D170" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="E170" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="F170" s="77">
         <v>1610</v>
@@ -7197,13 +7196,13 @@
         <v>45495</v>
       </c>
       <c r="C171" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D171" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F171" s="77">
         <v>44600</v>
@@ -7228,13 +7227,13 @@
         <v>45495</v>
       </c>
       <c r="C172" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D172" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F172" s="77">
         <v>10072</v>
@@ -7259,13 +7258,13 @@
         <v>45495</v>
       </c>
       <c r="C173" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D173" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F173" s="77">
         <v>17833.3</v>
@@ -7290,13 +7289,13 @@
         <v>45498</v>
       </c>
       <c r="C174" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D174" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F174" s="77">
         <v>23347.5</v>
@@ -7321,13 +7320,13 @@
         <v>45498</v>
       </c>
       <c r="C175" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D175" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F175" s="77">
         <v>2460</v>
@@ -7352,13 +7351,13 @@
         <v>45509</v>
       </c>
       <c r="C176" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D176" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F176" s="77">
         <v>5269</v>
@@ -7383,13 +7382,13 @@
         <v>45510</v>
       </c>
       <c r="C177" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D177" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F177" s="77">
         <v>7674.5</v>
@@ -7414,13 +7413,13 @@
         <v>45511</v>
       </c>
       <c r="C178" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D178" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F178" s="77">
         <v>34535</v>
@@ -7445,13 +7444,13 @@
         <v>45512</v>
       </c>
       <c r="C179" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D179" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F179" s="77">
         <v>24000</v>
@@ -7476,13 +7475,13 @@
         <v>45513</v>
       </c>
       <c r="C180" s="70" t="s">
+        <v>130</v>
+      </c>
+      <c r="D180" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="E180" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="D180" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="E180" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="F180" s="77">
         <v>3085</v>
@@ -7507,13 +7506,13 @@
         <v>45517</v>
       </c>
       <c r="C181" s="70" t="s">
+        <v>130</v>
+      </c>
+      <c r="D181" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="E181" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="D181" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="E181" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="F181" s="77">
         <v>1065</v>
@@ -7538,13 +7537,13 @@
         <v>45517</v>
       </c>
       <c r="C182" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D182" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F182" s="77">
         <v>7630</v>
@@ -7569,13 +7568,13 @@
         <v>45517</v>
       </c>
       <c r="C183" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D183" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E183" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F183" s="77">
         <v>130065</v>
@@ -7600,13 +7599,13 @@
         <v>45519</v>
       </c>
       <c r="C184" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D184" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F184" s="77">
         <v>9305</v>
@@ -7631,13 +7630,13 @@
         <v>45519</v>
       </c>
       <c r="C185" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D185" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E185" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F185" s="77">
         <v>14250</v>
@@ -7662,13 +7661,13 @@
         <v>45519</v>
       </c>
       <c r="C186" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D186" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F186" s="77">
         <v>3727.4</v>
@@ -7693,13 +7692,13 @@
         <v>45519</v>
       </c>
       <c r="C187" s="70" t="s">
+        <v>130</v>
+      </c>
+      <c r="D187" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="E187" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="D187" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="E187" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="F187" s="77">
         <v>2652</v>
@@ -7724,13 +7723,13 @@
         <v>45524</v>
       </c>
       <c r="C188" s="70" t="s">
+        <v>130</v>
+      </c>
+      <c r="D188" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="E188" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="D188" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="E188" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="F188" s="77">
         <v>1218</v>
@@ -7755,13 +7754,13 @@
         <v>45525</v>
       </c>
       <c r="C189" s="70" t="s">
+        <v>130</v>
+      </c>
+      <c r="D189" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="E189" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="D189" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="E189" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="F189" s="77">
         <v>677.5</v>
@@ -7786,13 +7785,13 @@
         <v>45527</v>
       </c>
       <c r="C190" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D190" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E190" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F190" s="77">
         <v>26393.5</v>
@@ -7817,13 +7816,13 @@
         <v>45528</v>
       </c>
       <c r="C191" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D191" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E191" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F191" s="77">
         <v>4276.5</v>
@@ -7848,13 +7847,13 @@
         <v>45530</v>
       </c>
       <c r="C192" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D192" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E192" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F192" s="80">
         <v>8510</v>
@@ -7879,13 +7878,13 @@
         <v>45530</v>
       </c>
       <c r="C193" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D193" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E193" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F193" s="77">
         <v>6140</v>
@@ -7910,13 +7909,13 @@
         <v>45531</v>
       </c>
       <c r="C194" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D194" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E194" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F194" s="77">
         <v>9900</v>
@@ -7941,13 +7940,13 @@
         <v>45531</v>
       </c>
       <c r="C195" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D195" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E195" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F195" s="77">
         <v>1872</v>
@@ -7972,13 +7971,13 @@
         <v>45532</v>
       </c>
       <c r="C196" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D196" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E196" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F196" s="77">
         <v>3507.8</v>
@@ -8003,13 +8002,13 @@
         <v>45532</v>
       </c>
       <c r="C197" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D197" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E197" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F197" s="77">
         <v>61200</v>
@@ -8034,13 +8033,13 @@
         <v>45532</v>
       </c>
       <c r="C198" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D198" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E198" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F198" s="77">
         <v>1654</v>
@@ -8065,13 +8064,13 @@
         <v>45532</v>
       </c>
       <c r="C199" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D199" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E199" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F199" s="77">
         <v>1960</v>
@@ -8096,13 +8095,13 @@
         <v>45533</v>
       </c>
       <c r="C200" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D200" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E200" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F200" s="77">
         <v>2750</v>
@@ -8127,13 +8126,13 @@
         <v>45533</v>
       </c>
       <c r="C201" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D201" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E201" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F201" s="77">
         <v>10474</v>
@@ -8158,13 +8157,13 @@
         <v>45538</v>
       </c>
       <c r="C202" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D202" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F202" s="77">
         <v>1500</v>
@@ -8189,13 +8188,13 @@
         <v>45538</v>
       </c>
       <c r="C203" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D203" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E203" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F203" s="77">
         <v>58796.42</v>
@@ -8220,13 +8219,13 @@
         <v>45539</v>
       </c>
       <c r="C204" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D204" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E204" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F204" s="77">
         <v>9380</v>
@@ -8251,13 +8250,13 @@
         <v>45539</v>
       </c>
       <c r="C205" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D205" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E205" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F205" s="77">
         <v>7683.8</v>
@@ -8282,13 +8281,13 @@
         <v>45540</v>
       </c>
       <c r="C206" s="70" t="s">
+        <v>130</v>
+      </c>
+      <c r="D206" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="E206" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="D206" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="E206" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="F206" s="77">
         <v>1994</v>
@@ -8313,13 +8312,13 @@
         <v>45540</v>
       </c>
       <c r="C207" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D207" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E207" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F207" s="77">
         <v>897.5</v>
@@ -8344,13 +8343,13 @@
         <v>45540</v>
       </c>
       <c r="C208" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D208" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E208" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F208" s="77">
         <v>8338.89</v>
@@ -8375,13 +8374,13 @@
         <v>45541</v>
       </c>
       <c r="C209" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D209" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E209" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F209" s="77">
         <v>8750</v>
@@ -8406,13 +8405,13 @@
         <v>45544</v>
       </c>
       <c r="C210" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D210" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E210" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F210" s="77">
         <v>10045</v>
@@ -8437,13 +8436,13 @@
         <v>45544</v>
       </c>
       <c r="C211" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D211" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E211" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F211" s="77">
         <v>26220.59</v>
@@ -8468,13 +8467,13 @@
         <v>45544</v>
       </c>
       <c r="C212" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D212" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E212" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F212" s="77">
         <v>32460</v>
@@ -8499,13 +8498,13 @@
         <v>45545</v>
       </c>
       <c r="C213" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D213" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E213" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F213" s="77">
         <v>19855</v>
@@ -8530,13 +8529,13 @@
         <v>45545</v>
       </c>
       <c r="C214" s="70" t="s">
+        <v>130</v>
+      </c>
+      <c r="D214" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="E214" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="D214" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="E214" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="F214" s="77">
         <v>1820</v>
@@ -8561,13 +8560,13 @@
         <v>45545</v>
       </c>
       <c r="C215" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D215" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E215" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F215" s="77">
         <v>15807</v>
@@ -8592,13 +8591,13 @@
         <v>45545</v>
       </c>
       <c r="C216" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D216" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E216" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F216" s="77">
         <v>8970</v>
@@ -8623,13 +8622,13 @@
         <v>45545</v>
       </c>
       <c r="C217" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D217" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E217" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F217" s="77">
         <v>26335</v>
@@ -8654,13 +8653,13 @@
         <v>45545</v>
       </c>
       <c r="C218" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D218" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E218" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F218" s="77">
         <v>2406.75</v>
@@ -8685,13 +8684,13 @@
         <v>45546</v>
       </c>
       <c r="C219" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D219" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E219" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F219" s="77">
         <v>10100</v>
@@ -8716,13 +8715,13 @@
         <v>45547</v>
       </c>
       <c r="C220" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D220" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E220" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F220" s="77">
         <v>4065</v>
@@ -8747,13 +8746,13 @@
         <v>45547</v>
       </c>
       <c r="C221" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D221" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E221" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F221" s="77">
         <v>65800</v>
@@ -8778,13 +8777,13 @@
         <v>45547</v>
       </c>
       <c r="C222" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D222" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E222" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F222" s="77">
         <v>23500</v>
@@ -8809,13 +8808,13 @@
         <v>45547</v>
       </c>
       <c r="C223" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D223" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E223" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F223" s="77">
         <v>94806</v>
@@ -8840,13 +8839,13 @@
         <v>45548</v>
       </c>
       <c r="C224" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D224" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E224" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F224" s="77">
         <v>16600</v>
@@ -8871,13 +8870,13 @@
         <v>45548</v>
       </c>
       <c r="C225" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D225" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E225" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F225" s="77">
         <v>10710</v>
@@ -8902,13 +8901,13 @@
         <v>45548</v>
       </c>
       <c r="C226" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D226" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E226" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F226" s="77">
         <v>23963.01</v>
@@ -8933,13 +8932,13 @@
         <v>45548</v>
       </c>
       <c r="C227" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D227" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E227" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F227" s="77">
         <v>8495</v>
@@ -8964,13 +8963,13 @@
         <v>45551</v>
       </c>
       <c r="C228" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D228" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E228" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F228" s="77">
         <v>1975</v>
@@ -8995,13 +8994,13 @@
         <v>45551</v>
       </c>
       <c r="C229" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D229" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E229" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F229" s="77">
         <v>66950</v>
@@ -9026,13 +9025,13 @@
         <v>45551</v>
       </c>
       <c r="C230" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D230" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E230" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F230" s="77">
         <v>25640</v>
@@ -9057,13 +9056,13 @@
         <v>45551</v>
       </c>
       <c r="C231" s="70" t="s">
+        <v>130</v>
+      </c>
+      <c r="D231" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="E231" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="D231" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="E231" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="F231" s="77">
         <v>1653</v>
@@ -9088,13 +9087,13 @@
         <v>45551</v>
       </c>
       <c r="C232" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D232" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E232" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F232" s="77">
         <v>90000</v>
@@ -9119,13 +9118,13 @@
         <v>45553</v>
       </c>
       <c r="C233" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D233" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E233" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F233" s="77">
         <v>1773.63</v>
@@ -9150,13 +9149,13 @@
         <v>45553</v>
       </c>
       <c r="C234" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D234" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E234" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F234" s="77">
         <v>65545.5</v>
@@ -9181,13 +9180,13 @@
         <v>45561</v>
       </c>
       <c r="C235" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D235" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E235" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F235" s="77">
         <v>171.64</v>
@@ -9212,13 +9211,13 @@
         <v>45561</v>
       </c>
       <c r="C236" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D236" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E236" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F236" s="77">
         <v>1370</v>
@@ -9243,13 +9242,13 @@
         <v>45562</v>
       </c>
       <c r="C237" s="70" t="s">
+        <v>130</v>
+      </c>
+      <c r="D237" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="E237" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="D237" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="E237" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="F237" s="77">
         <v>564</v>
@@ -9274,13 +9273,13 @@
         <v>45562</v>
       </c>
       <c r="C238" s="70" t="s">
+        <v>130</v>
+      </c>
+      <c r="D238" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="E238" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="D238" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="E238" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="F238" s="77">
         <v>2212.5</v>
@@ -9305,13 +9304,13 @@
         <v>45562</v>
       </c>
       <c r="C239" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D239" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E239" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F239" s="77">
         <v>1400</v>
@@ -9336,13 +9335,13 @@
         <v>45562</v>
       </c>
       <c r="C240" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D240" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E240" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F240" s="77">
         <v>1497.38</v>
@@ -9367,13 +9366,13 @@
         <v>45565</v>
       </c>
       <c r="C241" s="70" t="s">
+        <v>130</v>
+      </c>
+      <c r="D241" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="E241" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="D241" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="E241" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="F241" s="77">
         <v>1034.5999999999999</v>
@@ -9398,13 +9397,13 @@
         <v>45565</v>
       </c>
       <c r="C242" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D242" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E242" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F242" s="77">
         <v>2235</v>
@@ -9429,13 +9428,13 @@
         <v>45565</v>
       </c>
       <c r="C243" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D243" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E243" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F243" s="77">
         <v>3350</v>
@@ -9460,13 +9459,13 @@
         <v>45565</v>
       </c>
       <c r="C244" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D244" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E244" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F244" s="77">
         <v>66007.5</v>
@@ -9491,13 +9490,13 @@
         <v>45565</v>
       </c>
       <c r="C245" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D245" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E245" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F245" s="77">
         <v>1769.7</v>
@@ -9522,13 +9521,13 @@
         <v>45566</v>
       </c>
       <c r="C246" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D246" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E246" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F246" s="77">
         <v>19110</v>
@@ -9553,13 +9552,13 @@
         <v>45566</v>
       </c>
       <c r="C247" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D247" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E247" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F247" s="77">
         <v>2323.12</v>
@@ -9584,13 +9583,13 @@
         <v>45567</v>
       </c>
       <c r="C248" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D248" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E248" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F248" s="77">
         <v>14225</v>
@@ -9615,13 +9614,13 @@
         <v>45567</v>
       </c>
       <c r="C249" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D249" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E249" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F249" s="77">
         <v>1848</v>
@@ -9646,13 +9645,13 @@
         <v>45567</v>
       </c>
       <c r="C250" s="70" t="s">
+        <v>130</v>
+      </c>
+      <c r="D250" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="E250" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="D250" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="E250" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="F250" s="77">
         <v>1655.41</v>
@@ -9677,13 +9676,13 @@
         <v>45567</v>
       </c>
       <c r="C251" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D251" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E251" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F251" s="77">
         <v>1145</v>
@@ -9708,13 +9707,13 @@
         <v>45569</v>
       </c>
       <c r="C252" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D252" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E252" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F252" s="77">
         <v>1029.8399999999999</v>
@@ -9739,13 +9738,13 @@
         <v>45572</v>
       </c>
       <c r="C253" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D253" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E253" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F253" s="77">
         <v>72000</v>
@@ -9770,13 +9769,13 @@
         <v>45573</v>
       </c>
       <c r="C254" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D254" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E254" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F254" s="77">
         <v>1800</v>
@@ -9801,13 +9800,13 @@
         <v>45574</v>
       </c>
       <c r="C255" s="70" t="s">
+        <v>130</v>
+      </c>
+      <c r="D255" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="E255" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="D255" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="E255" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="F255" s="77">
         <v>1068.5999999999999</v>
@@ -9832,13 +9831,13 @@
         <v>45574</v>
       </c>
       <c r="C256" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D256" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E256" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F256" s="77">
         <v>167.4</v>
@@ -9863,13 +9862,13 @@
         <v>45574</v>
       </c>
       <c r="C257" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D257" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E257" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F257" s="77">
         <v>2469.4899999999998</v>
@@ -9894,13 +9893,13 @@
         <v>45575</v>
       </c>
       <c r="C258" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D258" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E258" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F258" s="77">
         <v>73916.63</v>
@@ -9925,13 +9924,13 @@
         <v>45575</v>
       </c>
       <c r="C259" s="70" t="s">
+        <v>130</v>
+      </c>
+      <c r="D259" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="E259" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="D259" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="E259" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="F259" s="77">
         <v>347.1</v>
@@ -9956,13 +9955,13 @@
         <v>45576</v>
       </c>
       <c r="C260" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D260" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E260" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F260" s="77">
         <v>5253</v>
@@ -9987,13 +9986,13 @@
         <v>45576</v>
       </c>
       <c r="C261" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D261" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E261" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F261" s="77">
         <v>71397</v>
@@ -10018,13 +10017,13 @@
         <v>45579</v>
       </c>
       <c r="C262" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D262" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E262" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F262" s="77">
         <v>495</v>
@@ -10049,13 +10048,13 @@
         <v>45579</v>
       </c>
       <c r="C263" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D263" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E263" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F263" s="77">
         <v>9330.2099999999991</v>
@@ -10080,13 +10079,13 @@
         <v>45580</v>
       </c>
       <c r="C264" s="70" t="s">
+        <v>130</v>
+      </c>
+      <c r="D264" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="E264" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="D264" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="E264" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="F264" s="77">
         <v>1820</v>
@@ -10111,13 +10110,13 @@
         <v>45580</v>
       </c>
       <c r="C265" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D265" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E265" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F265" s="77">
         <v>16209.69</v>
@@ -10142,13 +10141,13 @@
         <v>45580</v>
       </c>
       <c r="C266" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D266" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E266" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F266" s="77">
         <v>3530</v>
@@ -10173,13 +10172,13 @@
         <v>45580</v>
       </c>
       <c r="C267" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D267" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E267" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F267" s="77">
         <v>2099</v>
@@ -10204,13 +10203,13 @@
         <v>45580</v>
       </c>
       <c r="C268" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D268" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E268" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F268" s="77">
         <v>10500</v>
@@ -10235,13 +10234,13 @@
         <v>45581</v>
       </c>
       <c r="C269" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D269" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E269" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F269" s="77">
         <v>4757.3999999999996</v>
@@ -10266,13 +10265,13 @@
         <v>45581</v>
       </c>
       <c r="C270" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D270" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E270" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F270" s="77">
         <v>370</v>
@@ -10297,13 +10296,13 @@
         <v>45581</v>
       </c>
       <c r="C271" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D271" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E271" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F271" s="77">
         <v>13163.7</v>
@@ -10328,13 +10327,13 @@
         <v>45583</v>
       </c>
       <c r="C272" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D272" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E272" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F272" s="77">
         <v>880</v>
@@ -10359,13 +10358,13 @@
         <v>45583</v>
       </c>
       <c r="C273" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D273" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E273" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F273" s="77">
         <v>2934.78</v>
@@ -10390,13 +10389,13 @@
         <v>45586</v>
       </c>
       <c r="C274" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D274" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E274" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F274" s="77">
         <v>7368</v>
@@ -10421,13 +10420,13 @@
         <v>45586</v>
       </c>
       <c r="C275" s="70" t="s">
+        <v>130</v>
+      </c>
+      <c r="D275" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="E275" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="D275" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="E275" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="F275" s="77">
         <v>2863.75</v>
@@ -10452,13 +10451,13 @@
         <v>45587</v>
       </c>
       <c r="C276" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D276" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E276" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F276" s="77">
         <v>10777.5</v>
@@ -10483,13 +10482,13 @@
         <v>45587</v>
       </c>
       <c r="C277" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D277" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E277" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F277" s="77">
         <v>11400</v>
@@ -10514,13 +10513,13 @@
         <v>45588</v>
       </c>
       <c r="C278" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D278" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E278" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F278" s="77">
         <v>2558</v>
@@ -10545,13 +10544,13 @@
         <v>45589</v>
       </c>
       <c r="C279" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D279" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E279" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F279" s="77">
         <v>4366</v>
@@ -10576,13 +10575,13 @@
         <v>45590</v>
       </c>
       <c r="C280" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D280" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E280" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F280" s="77">
         <v>2248</v>
@@ -10607,13 +10606,13 @@
         <v>45590</v>
       </c>
       <c r="C281" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D281" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E281" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F281" s="77">
         <v>258004</v>
@@ -10638,13 +10637,13 @@
         <v>45590</v>
       </c>
       <c r="C282" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D282" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E282" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F282" s="77">
         <v>1100</v>
@@ -10669,13 +10668,13 @@
         <v>45590</v>
       </c>
       <c r="C283" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D283" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E283" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F283" s="77">
         <v>9452</v>
@@ -10700,13 +10699,13 @@
         <v>45593</v>
       </c>
       <c r="C284" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D284" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E284" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F284" s="77">
         <v>11100</v>
@@ -10731,13 +10730,13 @@
         <v>45593</v>
       </c>
       <c r="C285" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D285" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E285" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F285" s="77">
         <v>3850</v>
@@ -10762,13 +10761,13 @@
         <v>45593</v>
       </c>
       <c r="C286" s="70" t="s">
+        <v>130</v>
+      </c>
+      <c r="D286" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="E286" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="D286" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="E286" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="F286" s="77">
         <v>2025.3</v>
@@ -10793,13 +10792,13 @@
         <v>45595</v>
       </c>
       <c r="C287" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D287" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E287" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F287" s="77">
         <v>3975</v>
@@ -10824,13 +10823,13 @@
         <v>45596</v>
       </c>
       <c r="C288" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D288" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E288" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F288" s="77">
         <v>480</v>
@@ -10855,13 +10854,13 @@
         <v>45596</v>
       </c>
       <c r="C289" s="70" t="s">
+        <v>130</v>
+      </c>
+      <c r="D289" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="E289" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="D289" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="E289" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="F289" s="77">
         <v>298</v>
@@ -10886,13 +10885,13 @@
         <v>45596</v>
       </c>
       <c r="C290" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D290" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E290" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F290" s="79">
         <v>20517.169999999998</v>
@@ -10917,13 +10916,13 @@
         <v>45601</v>
       </c>
       <c r="C291" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D291" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E291" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F291" s="75">
         <v>1949.4</v>
@@ -10948,13 +10947,13 @@
         <v>45602</v>
       </c>
       <c r="C292" s="70" t="s">
+        <v>130</v>
+      </c>
+      <c r="D292" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="E292" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="D292" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="E292" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="F292" s="75">
         <v>905.45</v>
@@ -10979,13 +10978,13 @@
         <v>45604</v>
       </c>
       <c r="C293" s="70" t="s">
+        <v>130</v>
+      </c>
+      <c r="D293" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="E293" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="D293" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="E293" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="F293" s="75">
         <v>10183.5</v>
@@ -11010,13 +11009,13 @@
         <v>45604</v>
       </c>
       <c r="C294" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D294" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E294" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F294" s="75">
         <v>4206.25</v>
@@ -11041,13 +11040,13 @@
         <v>45604</v>
       </c>
       <c r="C295" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D295" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E295" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F295" s="75">
         <v>17394</v>
@@ -11072,13 +11071,13 @@
         <v>45604</v>
       </c>
       <c r="C296" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D296" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E296" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F296" s="75">
         <v>35718.9</v>
@@ -11103,13 +11102,13 @@
         <v>45609</v>
       </c>
       <c r="C297" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D297" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E297" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F297" s="75">
         <v>19800</v>
@@ -11134,13 +11133,13 @@
         <v>45610</v>
       </c>
       <c r="C298" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D298" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E298" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F298" s="75">
         <v>12500</v>
@@ -11165,13 +11164,13 @@
         <v>45610</v>
       </c>
       <c r="C299" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D299" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E299" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F299" s="75">
         <v>3150</v>
@@ -11196,13 +11195,13 @@
         <v>45610</v>
       </c>
       <c r="C300" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D300" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E300" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F300" s="75">
         <v>833.1</v>
@@ -11227,13 +11226,13 @@
         <v>45610</v>
       </c>
       <c r="C301" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D301" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E301" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F301" s="75">
         <v>2316</v>
@@ -11258,13 +11257,13 @@
         <v>45610</v>
       </c>
       <c r="C302" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D302" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E302" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F302" s="75">
         <v>26162</v>
@@ -11289,13 +11288,13 @@
         <v>45610</v>
       </c>
       <c r="C303" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D303" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E303" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F303" s="75">
         <v>42840</v>
@@ -11320,13 +11319,13 @@
         <v>45617</v>
       </c>
       <c r="C304" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D304" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E304" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F304" s="75">
         <v>10893.5</v>
@@ -11351,13 +11350,13 @@
         <v>45617</v>
       </c>
       <c r="C305" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D305" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E305" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F305" s="75">
         <v>1179</v>
@@ -11382,13 +11381,13 @@
         <v>45618</v>
       </c>
       <c r="C306" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D306" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E306" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F306" s="75">
         <v>540</v>
@@ -11413,13 +11412,13 @@
         <v>45618</v>
       </c>
       <c r="C307" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D307" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E307" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F307" s="75">
         <v>1422.9</v>
@@ -11444,13 +11443,13 @@
         <v>45621</v>
       </c>
       <c r="C308" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D308" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E308" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F308" s="75">
         <v>48781.68</v>
@@ -11475,13 +11474,13 @@
         <v>45621</v>
       </c>
       <c r="C309" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D309" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E309" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F309" s="75">
         <v>23985</v>
@@ -11506,13 +11505,13 @@
         <v>45622</v>
       </c>
       <c r="C310" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D310" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E310" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F310" s="75">
         <v>2880</v>
@@ -11537,13 +11536,13 @@
         <v>45623</v>
       </c>
       <c r="C311" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D311" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E311" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F311" s="75">
         <v>46805.94</v>
@@ -11568,13 +11567,13 @@
         <v>45628</v>
       </c>
       <c r="C312" s="70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D312" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E312" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F312" s="75">
         <v>16800</v>
@@ -11599,13 +11598,13 @@
         <v>45632</v>
       </c>
       <c r="C313" s="70" t="s">
+        <v>130</v>
+      </c>
+      <c r="D313" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="E313" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="D313" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="E313" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="F313" s="75">
         <v>1428</v>
@@ -11630,13 +11629,13 @@
         <v>45607</v>
       </c>
       <c r="C314" s="70" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D314" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E314" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F314" s="75">
         <v>267.3</v>
@@ -11661,13 +11660,13 @@
         <v>45607</v>
       </c>
       <c r="C315" s="70" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D315" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E315" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F315" s="75">
         <v>1287</v>
@@ -11692,13 +11691,13 @@
         <v>45607</v>
       </c>
       <c r="C316" s="70" t="s">
+        <v>183</v>
+      </c>
+      <c r="D316" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="E316" s="5" t="s">
         <v>184</v>
-      </c>
-      <c r="D316" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="E316" s="5" t="s">
-        <v>185</v>
       </c>
       <c r="F316" s="75">
         <v>2924</v>
@@ -11723,13 +11722,13 @@
         <v>45608</v>
       </c>
       <c r="C317" s="70" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D317" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E317" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F317" s="75">
         <v>6672</v>
@@ -11754,13 +11753,13 @@
         <v>45614</v>
       </c>
       <c r="C318" s="70" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D318" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E318" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F318" s="75">
         <v>4741.12</v>
@@ -11785,13 +11784,13 @@
         <v>45614</v>
       </c>
       <c r="C319" s="70" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D319" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E319" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F319" s="75">
         <v>25483.52</v>
@@ -11816,13 +11815,13 @@
         <v>45614</v>
       </c>
       <c r="C320" s="70" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D320" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E320" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F320" s="75">
         <v>80800</v>
@@ -11847,13 +11846,13 @@
         <v>45617</v>
       </c>
       <c r="C321" s="70" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D321" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E321" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F321" s="75">
         <v>298</v>
@@ -11878,13 +11877,13 @@
         <v>45618</v>
       </c>
       <c r="C322" s="70" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D322" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E322" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F322" s="75">
         <v>1249.4000000000001</v>
@@ -11909,13 +11908,13 @@
         <v>45622</v>
       </c>
       <c r="C323" s="70" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D323" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E323" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F323" s="75">
         <v>36400</v>
@@ -11940,13 +11939,13 @@
         <v>45622</v>
       </c>
       <c r="C324" s="70" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D324" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E324" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F324" s="75">
         <v>24000</v>
@@ -11971,13 +11970,13 @@
         <v>45622</v>
       </c>
       <c r="C325" s="70" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D325" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E325" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F325" s="75">
         <v>10530</v>
@@ -12002,13 +12001,13 @@
         <v>45624</v>
       </c>
       <c r="C326" s="70" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D326" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E326" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F326" s="75">
         <v>890</v>
@@ -12033,13 +12032,13 @@
         <v>45624</v>
       </c>
       <c r="C327" s="70" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D327" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E327" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F327" s="75">
         <v>384.14</v>
@@ -12064,13 +12063,13 @@
         <v>45625</v>
       </c>
       <c r="C328" s="70" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D328" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E328" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F328" s="75">
         <v>562.5</v>
@@ -12095,13 +12094,13 @@
         <v>45628</v>
       </c>
       <c r="C329" s="70" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D329" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E329" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F329" s="75">
         <v>9400</v>
@@ -12126,13 +12125,13 @@
         <v>45631</v>
       </c>
       <c r="C330" s="70" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D330" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E330" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F330" s="75">
         <v>203.4</v>
@@ -12157,13 +12156,13 @@
         <v>45631</v>
       </c>
       <c r="C331" s="70" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D331" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E331" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F331" s="75">
         <v>13928</v>
@@ -12188,13 +12187,13 @@
         <v>45631</v>
       </c>
       <c r="C332" s="70" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D332" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E332" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F332" s="75">
         <v>12834.16</v>
@@ -12219,13 +12218,13 @@
         <v>45632</v>
       </c>
       <c r="C333" s="70" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D333" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E333" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F333" s="75">
         <v>10800</v>
@@ -12250,13 +12249,13 @@
         <v>45632</v>
       </c>
       <c r="C334" s="70" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D334" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E334" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F334" s="75">
         <v>2729</v>
@@ -12281,13 +12280,13 @@
         <v>45632</v>
       </c>
       <c r="C335" s="70" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D335" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E335" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F335" s="75">
         <v>4208.5600000000004</v>
@@ -12306,19 +12305,19 @@
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B336" s="69">
         <v>45632</v>
       </c>
       <c r="C336" s="70" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D336" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E336" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F336" s="75">
         <v>9600</v>
@@ -12343,13 +12342,13 @@
         <v>45617</v>
       </c>
       <c r="C337" s="70" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D337" s="71" t="s">
         <v>25</v>
       </c>
       <c r="E337" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F337" s="75">
         <v>15674.31</v>
@@ -12374,13 +12373,13 @@
         <v>45621</v>
       </c>
       <c r="C338" s="70" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D338" s="71" t="s">
         <v>25</v>
       </c>
       <c r="E338" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F338" s="75">
         <v>1288.1500000000001</v>
@@ -12405,13 +12404,13 @@
         <v>45433</v>
       </c>
       <c r="C339" s="70" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D339" s="71" t="s">
         <v>6</v>
       </c>
       <c r="E339" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F339" s="75">
         <v>335370.15999999997</v>
@@ -12436,13 +12435,13 @@
         <v>45600</v>
       </c>
       <c r="C340" s="70" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D340" s="71" t="s">
         <v>6</v>
       </c>
       <c r="E340" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F340" s="75">
         <v>239500</v>
@@ -12467,13 +12466,13 @@
         <v>45609</v>
       </c>
       <c r="C341" s="70" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D341" s="71" t="s">
         <v>6</v>
       </c>
       <c r="E341" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F341" s="75">
         <v>173237</v>
@@ -12498,13 +12497,13 @@
         <v>45439</v>
       </c>
       <c r="C342" s="70" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D342" s="71" t="s">
         <v>6</v>
       </c>
       <c r="E342" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F342" s="75">
         <v>100232.13</v>
@@ -12529,13 +12528,13 @@
         <v>45629</v>
       </c>
       <c r="C343" s="70" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D343" s="71" t="s">
         <v>6</v>
       </c>
       <c r="E343" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F343" s="75">
         <v>19000</v>
@@ -12560,13 +12559,13 @@
         <v>45579</v>
       </c>
       <c r="C344" s="70" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D344" s="71" t="s">
         <v>6</v>
       </c>
       <c r="E344" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F344" s="75">
         <v>254316.77</v>
@@ -12591,13 +12590,13 @@
         <v>45518</v>
       </c>
       <c r="C345" s="70" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D345" s="71" t="s">
         <v>6</v>
       </c>
       <c r="E345" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F345" s="75">
         <v>198804</v>
@@ -12622,13 +12621,13 @@
         <v>45596</v>
       </c>
       <c r="C346" s="70" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D346" s="71" t="s">
         <v>6</v>
       </c>
       <c r="E346" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F346" s="75">
         <v>17765.014999999999</v>
@@ -12653,13 +12652,13 @@
         <v>45432</v>
       </c>
       <c r="C347" s="70" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D347" s="71" t="s">
         <v>6</v>
       </c>
       <c r="E347" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F347" s="75">
         <v>43775</v>
@@ -12684,13 +12683,13 @@
         <v>45441</v>
       </c>
       <c r="C348" s="70" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D348" s="71" t="s">
         <v>6</v>
       </c>
       <c r="E348" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F348" s="75">
         <v>23500</v>
@@ -12715,13 +12714,13 @@
         <v>45447</v>
       </c>
       <c r="C349" s="70" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D349" s="71" t="s">
         <v>6</v>
       </c>
       <c r="E349" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F349" s="75">
         <v>10289.799999999999</v>
@@ -12746,13 +12745,13 @@
         <v>45628</v>
       </c>
       <c r="C350" s="70" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D350" s="71" t="s">
         <v>6</v>
       </c>
       <c r="E350" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F350" s="75">
         <v>62630</v>
@@ -12777,13 +12776,13 @@
         <v>45579</v>
       </c>
       <c r="C351" s="70" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D351" s="71" t="s">
         <v>6</v>
       </c>
       <c r="E351" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F351" s="75">
         <v>41347.4</v>
@@ -12808,13 +12807,13 @@
         <v>45580</v>
       </c>
       <c r="C352" s="70" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D352" s="71" t="s">
         <v>6</v>
       </c>
       <c r="E352" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F352" s="75">
         <v>100798.21</v>
@@ -12839,13 +12838,13 @@
         <v>45617</v>
       </c>
       <c r="C353" s="70" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D353" s="71" t="s">
         <v>6</v>
       </c>
       <c r="E353" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F353" s="75">
         <v>36810</v>
@@ -12870,13 +12869,13 @@
         <v>45579</v>
       </c>
       <c r="C354" s="70" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D354" s="71" t="s">
         <v>6</v>
       </c>
       <c r="E354" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F354" s="75">
         <v>48612.45</v>
@@ -12901,13 +12900,13 @@
         <v>45587</v>
       </c>
       <c r="C355" s="70" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D355" s="71" t="s">
         <v>6</v>
       </c>
       <c r="E355" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F355" s="75">
         <v>27800</v>
@@ -12932,13 +12931,13 @@
         <v>45478</v>
       </c>
       <c r="C356" s="70" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D356" s="71" t="s">
         <v>6</v>
       </c>
       <c r="E356" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F356" s="75">
         <v>25215</v>
@@ -12963,13 +12962,13 @@
         <v>45483</v>
       </c>
       <c r="C357" s="70" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D357" s="71" t="s">
         <v>6</v>
       </c>
       <c r="E357" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F357" s="75">
         <v>43092.1</v>
@@ -12994,13 +12993,13 @@
         <v>45539</v>
       </c>
       <c r="C358" s="70" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D358" s="71" t="s">
         <v>6</v>
       </c>
       <c r="E358" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F358" s="75">
         <v>69492</v>
@@ -13025,13 +13024,13 @@
         <v>45596</v>
       </c>
       <c r="C359" s="70" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D359" s="71" t="s">
         <v>6</v>
       </c>
       <c r="E359" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F359" s="75">
         <v>42037</v>
@@ -13056,13 +13055,13 @@
         <v>45596</v>
       </c>
       <c r="C360" s="70" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D360" s="71" t="s">
         <v>6</v>
       </c>
       <c r="E360" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F360" s="75">
         <v>8150</v>
@@ -13087,13 +13086,13 @@
         <v>45587</v>
       </c>
       <c r="C361" s="70" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D361" s="71" t="s">
         <v>6</v>
       </c>
       <c r="E361" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F361" s="75">
         <v>5479.3</v>
@@ -13118,13 +13117,13 @@
         <v>45588</v>
       </c>
       <c r="C362" s="70" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D362" s="71" t="s">
         <v>10</v>
       </c>
       <c r="E362" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F362" s="75">
         <v>121848</v>
@@ -13149,13 +13148,13 @@
         <v>45588</v>
       </c>
       <c r="C363" s="70" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D363" s="71" t="s">
         <v>19</v>
       </c>
       <c r="E363" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F363" s="75">
         <v>14034</v>
@@ -13180,13 +13179,13 @@
         <v>45588</v>
       </c>
       <c r="C364" s="70" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D364" s="71" t="s">
         <v>11</v>
       </c>
       <c r="E364" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F364" s="75">
         <v>67872</v>
@@ -13211,13 +13210,13 @@
         <v>45628</v>
       </c>
       <c r="C365" s="70" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D365" s="71" t="s">
         <v>6</v>
       </c>
       <c r="E365" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F365" s="75">
         <v>18400</v>
@@ -13242,13 +13241,13 @@
         <v>45575</v>
       </c>
       <c r="C366" s="70" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D366" s="71" t="s">
         <v>6</v>
       </c>
       <c r="E366" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F366" s="75">
         <v>17100</v>
@@ -13273,13 +13272,13 @@
         <v>45595</v>
       </c>
       <c r="C367" s="70" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D367" s="71" t="s">
         <v>6</v>
       </c>
       <c r="E367" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F367" s="75">
         <v>28730</v>
@@ -13304,13 +13303,13 @@
         <v>45596</v>
       </c>
       <c r="C368" s="70" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D368" s="71" t="s">
         <v>6</v>
       </c>
       <c r="E368" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F368" s="75">
         <v>33505.800000000003</v>
@@ -13335,13 +13334,13 @@
         <v>45530</v>
       </c>
       <c r="C369" s="70" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D369" s="71" t="s">
         <v>6</v>
       </c>
       <c r="E369" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F369" s="75">
         <v>2810.67</v>
@@ -13366,13 +13365,13 @@
         <v>45587</v>
       </c>
       <c r="C370" s="70" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D370" s="71" t="s">
         <v>6</v>
       </c>
       <c r="E370" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F370" s="75">
         <v>4247.66</v>
@@ -13397,13 +13396,13 @@
         <v>45587</v>
       </c>
       <c r="C371" s="70" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D371" s="71" t="s">
         <v>6</v>
       </c>
       <c r="E371" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F371" s="75">
         <v>8910</v>
@@ -13428,13 +13427,13 @@
         <v>45568</v>
       </c>
       <c r="C372" s="70" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D372" s="71" t="s">
         <v>6</v>
       </c>
       <c r="E372" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F372" s="75">
         <v>7800</v>
@@ -13459,13 +13458,13 @@
         <v>45426</v>
       </c>
       <c r="C373" s="70" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D373" s="71" t="s">
         <v>6</v>
       </c>
       <c r="E373" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F373" s="75">
         <v>3731.2</v>
@@ -13490,13 +13489,13 @@
         <v>45559</v>
       </c>
       <c r="C374" s="70" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D374" s="71" t="s">
         <v>6</v>
       </c>
       <c r="E374" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F374" s="75">
         <v>4560</v>
@@ -13521,13 +13520,13 @@
         <v>45629</v>
       </c>
       <c r="C375" s="70" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D375" s="71" t="s">
         <v>6</v>
       </c>
       <c r="E375" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F375" s="75">
         <v>5229.5</v>
@@ -13552,13 +13551,13 @@
         <v>45574</v>
       </c>
       <c r="C376" s="70" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D376" s="71" t="s">
         <v>6</v>
       </c>
       <c r="E376" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F376" s="75">
         <v>4070.8</v>
@@ -13583,13 +13582,13 @@
         <v>45484</v>
       </c>
       <c r="C377" s="70" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D377" s="71" t="s">
         <v>12</v>
       </c>
       <c r="E377" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F377" s="75">
         <v>1720</v>
@@ -13614,13 +13613,13 @@
         <v>45551</v>
       </c>
       <c r="C378" s="70" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D378" s="71" t="s">
         <v>12</v>
       </c>
       <c r="E378" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F378" s="75">
         <v>1137.52</v>
@@ -13645,13 +13644,13 @@
         <v>45552</v>
       </c>
       <c r="C379" s="70" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D379" s="71" t="s">
         <v>12</v>
       </c>
       <c r="E379" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F379" s="75">
         <v>832.96</v>
@@ -13676,13 +13675,13 @@
         <v>45552</v>
       </c>
       <c r="C380" s="70" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D380" s="71" t="s">
         <v>12</v>
       </c>
       <c r="E380" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F380" s="75">
         <v>1175</v>
@@ -13707,13 +13706,13 @@
         <v>45552</v>
       </c>
       <c r="C381" s="70" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D381" s="71" t="s">
         <v>12</v>
       </c>
       <c r="E381" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F381" s="75">
         <v>2134</v>
@@ -13738,13 +13737,13 @@
         <v>45559</v>
       </c>
       <c r="C382" s="70" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D382" s="71" t="s">
         <v>12</v>
       </c>
       <c r="E382" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F382" s="75">
         <v>1806.42</v>
@@ -13769,13 +13768,13 @@
         <v>45561</v>
       </c>
       <c r="C383" s="70" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D383" s="71" t="s">
         <v>12</v>
       </c>
       <c r="E383" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F383" s="75">
         <v>3151.44</v>
@@ -13800,13 +13799,13 @@
         <v>45561</v>
       </c>
       <c r="C384" s="70" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D384" s="71" t="s">
         <v>12</v>
       </c>
       <c r="E384" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F384" s="75">
         <v>4037.24</v>
@@ -13831,13 +13830,13 @@
         <v>45561</v>
       </c>
       <c r="C385" s="70" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D385" s="71" t="s">
         <v>12</v>
       </c>
       <c r="E385" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F385" s="75">
         <v>9205.58</v>
@@ -13862,13 +13861,13 @@
         <v>45561</v>
       </c>
       <c r="C386" s="70" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D386" s="71" t="s">
         <v>12</v>
       </c>
       <c r="E386" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F386" s="75">
         <v>2751.11</v>
@@ -13893,13 +13892,13 @@
         <v>45565</v>
       </c>
       <c r="C387" s="70" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D387" s="71" t="s">
         <v>12</v>
       </c>
       <c r="E387" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F387" s="75">
         <v>887</v>
@@ -13924,13 +13923,13 @@
         <v>45637</v>
       </c>
       <c r="C388" s="70" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D388" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E388" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F388" s="75">
         <v>1611.97</v>
@@ -13955,13 +13954,13 @@
         <v>45637</v>
       </c>
       <c r="C389" s="70" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D389" s="71" t="s">
         <v>20</v>
       </c>
       <c r="E389" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F389" s="75">
         <v>11502</v>
@@ -13979,21 +13978,7 @@
       </c>
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F390" s="4">
-        <f>SUBTOTAL(9,F2:F389)</f>
-        <v>30055318.634999998</v>
-      </c>
-      <c r="G390" s="4">
-        <f>SUBTOTAL(9,G2:G389)</f>
-        <v>27304154.969000012</v>
-      </c>
-      <c r="H390" s="82">
-        <f>SUBTOTAL(9,H2:H389)</f>
-        <v>2751163.6659999965</v>
-      </c>
-    </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H391" s="82"/>
+      <c r="H390" s="82"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J389" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/Saving2024.xlsx
+++ b/Saving2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josec\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B355C353-A682-4E6F-9252-CAF0934A00E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B31127A-EC1A-4F4F-A88E-217BF24D010A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1953,10 +1953,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L390"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A366" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A390" sqref="A390:XFD390"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2001,7 +2002,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>4500047983</v>
       </c>
@@ -2032,7 +2033,7 @@
         <v>2.3065094823167605E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>4500047844</v>
       </c>
@@ -2063,7 +2064,7 @@
         <v>0.18962722852512157</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>4500047999</v>
       </c>
@@ -2094,7 +2095,7 @@
         <v>0.1103202846975089</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>4500047296</v>
       </c>
@@ -2126,7 +2127,7 @@
       </c>
       <c r="L5" s="40"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>4500049099</v>
       </c>
@@ -2157,7 +2158,7 @@
         <v>0.14005983138428066</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>33</v>
       </c>
@@ -2188,7 +2189,7 @@
         <v>0.14044751501571598</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>4500052066</v>
       </c>
@@ -2219,7 +2220,7 @@
         <v>7.0512820512820512E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>4500053469</v>
       </c>
@@ -2250,7 +2251,7 @@
         <v>1.768172888015717E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>4500053199</v>
       </c>
@@ -2281,7 +2282,7 @@
         <v>0.65454545454545454</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>4500040464</v>
       </c>
@@ -2312,7 +2313,7 @@
         <v>5.9405940594059403E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>4500048817</v>
       </c>
@@ -2343,7 +2344,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>4500049099</v>
       </c>
@@ -2374,7 +2375,7 @@
         <v>0.18121855785354948</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>4500050534</v>
       </c>
@@ -2405,7 +2406,7 @@
         <v>4.3840579710144927E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>4500049845</v>
       </c>
@@ -2436,7 +2437,7 @@
         <v>2.5465474398908155E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>4500049724</v>
       </c>
@@ -2467,7 +2468,7 @@
         <v>5.4357754776639816E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>4500048798</v>
       </c>
@@ -2498,7 +2499,7 @@
         <v>0.23200000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>4500047376</v>
       </c>
@@ -2529,7 +2530,7 @@
         <v>0.49324324324324326</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>4500039112</v>
       </c>
@@ -2558,7 +2559,7 @@
         <v>4.9429604543621684E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>4500039258</v>
       </c>
@@ -2587,7 +2588,7 @@
         <v>9.8518028790247111E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>4500040245</v>
       </c>
@@ -2616,7 +2617,7 @@
         <v>4.9429604543621684E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>4500040903</v>
       </c>
@@ -2645,7 +2646,7 @@
         <v>4.9429604543621754E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>4500040883</v>
       </c>
@@ -2674,7 +2675,7 @@
         <v>0.13718723037100949</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>46</v>
       </c>
@@ -2703,7 +2704,7 @@
         <v>2.7119908273085462E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>46</v>
       </c>
@@ -2732,7 +2733,7 @@
         <v>2.7119907382111747E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>46</v>
       </c>
@@ -2761,7 +2762,7 @@
         <v>2.7119914505528777E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>46</v>
       </c>
@@ -2790,7 +2791,7 @@
         <v>2.7119903408563066E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>46</v>
       </c>
@@ -2819,7 +2820,7 @@
         <v>4.3373303041049277E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>46</v>
       </c>
@@ -2848,7 +2849,7 @@
         <v>4.3373309077190121E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>46</v>
       </c>
@@ -2877,7 +2878,7 @@
         <v>4.3373315391973054E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>46</v>
       </c>
@@ -2906,7 +2907,7 @@
         <v>4.3373081964929228E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>46</v>
       </c>
@@ -2935,7 +2936,7 @@
         <v>4.5323916868557496E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
         <v>4500042932</v>
       </c>
@@ -2964,7 +2965,7 @@
         <v>9.0832356997315261E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14">
         <v>28002914</v>
       </c>
@@ -2993,7 +2994,7 @@
         <v>0.1640151515151515</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14">
         <v>4500045297</v>
       </c>
@@ -3022,7 +3023,7 @@
         <v>2.5363929108870784E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
         <v>4500049820</v>
       </c>
@@ -3051,7 +3052,7 @@
         <v>3.0242138048829498E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>54</v>
       </c>
@@ -3080,7 +3081,7 @@
         <v>0.16232266179654334</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>56</v>
       </c>
@@ -3109,7 +3110,7 @@
         <v>8.5600394347163183E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
         <v>4500050508</v>
       </c>
@@ -3138,7 +3139,7 @@
         <v>9.1169729314320963E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>57</v>
       </c>
@@ -3167,7 +3168,7 @@
         <v>4.8941157539852662E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14">
         <v>4500051691</v>
       </c>
@@ -3196,7 +3197,7 @@
         <v>9.3055927214343054E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14">
         <v>28003469</v>
       </c>
@@ -3225,7 +3226,7 @@
         <v>0.15983193277310925</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="14">
         <v>28003470</v>
       </c>
@@ -3254,7 +3255,7 @@
         <v>0.15983193277310925</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14">
         <v>4500051949</v>
       </c>
@@ -3283,7 +3284,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="14">
         <v>4500052950</v>
       </c>
@@ -3312,7 +3313,7 @@
         <v>3.2490974729241874E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14">
         <v>4500053064</v>
       </c>
@@ -3341,7 +3342,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14">
         <v>28003620</v>
       </c>
@@ -3370,7 +3371,7 @@
         <v>0.15966386554621848</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14">
         <v>28003621</v>
       </c>
@@ -3399,7 +3400,7 @@
         <v>0.15966386554621848</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14">
         <v>4500053846</v>
       </c>
@@ -3428,7 +3429,7 @@
         <v>2.3619118467546978E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
         <v>63</v>
       </c>
@@ -3457,7 +3458,7 @@
         <v>7.8363871475409783E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
         <v>37004300</v>
       </c>
@@ -3488,7 +3489,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="14">
         <v>37004301</v>
       </c>
@@ -3519,7 +3520,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="14">
         <v>37004299</v>
       </c>
@@ -3550,7 +3551,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="14">
         <v>37004304</v>
       </c>
@@ -3581,7 +3582,7 @@
         <v>0.19422043010752688</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="14">
         <v>37004303</v>
       </c>
@@ -3612,7 +3613,7 @@
         <v>2.2641062114746324E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="14">
         <v>37004302</v>
       </c>
@@ -3643,7 +3644,7 @@
         <v>0.11723697514767709</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="14">
         <v>37004306</v>
       </c>
@@ -3674,7 +3675,7 @@
         <v>3.0988274706867672E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="14">
         <v>37004305</v>
       </c>
@@ -3705,7 +3706,7 @@
         <v>0.15926570565745829</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="14">
         <v>37004547</v>
       </c>
@@ -3736,7 +3737,7 @@
         <v>5.0666666666666665E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="14">
         <v>37004308</v>
       </c>
@@ -3767,7 +3768,7 @@
         <v>9.5238095238095247E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="14">
         <v>37004310</v>
       </c>
@@ -3799,7 +3800,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="14">
         <v>37004311</v>
       </c>
@@ -3831,7 +3832,7 @@
         <v>3.8461538461538464E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="14">
         <v>37004312</v>
       </c>
@@ -3863,7 +3864,7 @@
         <v>0.1849390919158361</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="14">
         <v>37004545</v>
       </c>
@@ -3894,7 +3895,7 @@
         <v>0.10584347826086957</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="14">
         <v>37004546</v>
       </c>
@@ -3925,7 +3926,7 @@
         <v>0.78255033557046982</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="14">
         <v>37004544</v>
       </c>
@@ -3956,7 +3957,7 @@
         <v>3.0599999999999999E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="14">
         <v>37004359</v>
       </c>
@@ -3988,7 +3989,7 @@
         <v>0.21411972485592121</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="14">
         <v>37004360</v>
       </c>
@@ -4019,7 +4020,7 @@
         <v>9.6010425020048043E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="14">
         <v>37004316</v>
       </c>
@@ -4050,7 +4051,7 @@
         <v>0.37984496124031009</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="14">
         <v>37004317</v>
       </c>
@@ -4081,7 +4082,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="14">
         <v>37004543</v>
       </c>
@@ -4112,7 +4113,7 @@
         <v>0.27259212063289795</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="14">
         <v>37004851</v>
       </c>
@@ -4143,7 +4144,7 @@
         <v>0.19154228855721392</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="14">
         <v>37004649</v>
       </c>
@@ -4174,7 +4175,7 @@
         <v>1.8065133001431963E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="14">
         <v>37004648</v>
       </c>
@@ -4205,7 +4206,7 @@
         <v>0.25750000000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="14">
         <v>37004520</v>
       </c>
@@ -4236,7 +4237,7 @@
         <v>0.25730455382995526</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="14">
         <v>37004754</v>
       </c>
@@ -4267,7 +4268,7 @@
         <v>0.3199651264167393</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="14">
         <v>37004792</v>
       </c>
@@ -4298,7 +4299,7 @@
         <v>0.188056</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="14">
         <v>37004970</v>
       </c>
@@ -4329,7 +4330,7 @@
         <v>0.28312113309812342</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="14">
         <v>37004753</v>
       </c>
@@ -4360,7 +4361,7 @@
         <v>9.6917909218351667E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="14">
         <v>37004791</v>
       </c>
@@ -4391,7 +4392,7 @@
         <v>0.3582009274469044</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="14">
         <v>37004975</v>
       </c>
@@ -4422,7 +4423,7 @@
         <v>0.79966611018363942</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="14">
         <v>37004975</v>
       </c>
@@ -4453,7 +4454,7 @@
         <v>0.91570929070929075</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="14">
         <v>37004937</v>
       </c>
@@ -4487,7 +4488,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="14">
         <v>37004752</v>
       </c>
@@ -4518,7 +4519,7 @@
         <v>5.8823529411764705E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="14">
         <v>37004902</v>
       </c>
@@ -4549,7 +4550,7 @@
         <v>0.4639750952298084</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="14">
         <v>37004995</v>
       </c>
@@ -4580,7 +4581,7 @@
         <v>5.5471428571428595E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="14">
         <v>37004848</v>
       </c>
@@ -4611,7 +4612,7 @@
         <v>0.16909117160781825</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="14">
         <v>37004819</v>
       </c>
@@ -4642,7 +4643,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14">
         <v>37004880</v>
       </c>
@@ -4673,7 +4674,7 @@
         <v>0.50038461538461543</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="14">
         <v>37004874</v>
       </c>
@@ -4704,7 +4705,7 @@
         <v>1.9607843137254902E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="14">
         <v>37004849</v>
       </c>
@@ -4735,7 +4736,7 @@
         <v>0.15627292736610418</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="14">
         <v>37004849</v>
       </c>
@@ -4766,7 +4767,7 @@
         <v>1.5151515151515152E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="14">
         <v>37004849</v>
       </c>
@@ -4797,7 +4798,7 @@
         <v>0.54781822292561611</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="14">
         <v>37004860</v>
       </c>
@@ -4828,7 +4829,7 @@
         <v>7.1117561683599423E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="14">
         <v>37004405</v>
       </c>
@@ -4859,7 +4860,7 @@
         <v>0.1777761951219512</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="14">
         <v>37004352</v>
       </c>
@@ -4921,7 +4922,7 @@
         <v>4.0521658127619938E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="14" t="s">
         <v>96</v>
       </c>
@@ -4952,7 +4953,7 @@
         <v>0.1761134108527132</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="14">
         <v>37004394</v>
       </c>
@@ -4983,7 +4984,7 @@
         <v>0.23480311797466874</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="14">
         <v>37004387</v>
       </c>
@@ -5014,7 +5015,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="14">
         <v>37004397</v>
       </c>
@@ -5045,7 +5046,7 @@
         <v>0.25096711798839461</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="14">
         <v>37004418</v>
       </c>
@@ -5107,7 +5108,7 @@
         <v>0.13333333333333333</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="14">
         <v>37004881</v>
       </c>
@@ -5138,7 +5139,7 @@
         <v>0.17582417582417584</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14">
         <v>37005126</v>
       </c>
@@ -5169,7 +5170,7 @@
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
         <v>105</v>
       </c>
@@ -5201,7 +5202,7 @@
         <v>0.20025155708503978</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="14">
         <v>37004984</v>
       </c>
@@ -5232,7 +5233,7 @@
         <v>0.26605504587155965</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="14">
         <v>37005171</v>
       </c>
@@ -5263,7 +5264,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="14">
         <v>4500039245</v>
       </c>
@@ -5294,7 +5295,7 @@
         <v>0.24464</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="14">
         <v>4500039277</v>
       </c>
@@ -5325,7 +5326,7 @@
         <v>0.11336906952556204</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="14">
         <v>4500040716</v>
       </c>
@@ -5356,7 +5357,7 @@
         <v>0.10094703705791017</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="14">
         <v>4500040906</v>
       </c>
@@ -5387,7 +5388,7 @@
         <v>0.18180177334566708</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="14" t="s">
         <v>111</v>
       </c>
@@ -5419,7 +5420,7 @@
         <v>0.255473859247414</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="14">
         <v>4500041150</v>
       </c>
@@ -5450,7 +5451,7 @@
         <v>0.17994352952295448</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="14">
         <v>4500041621</v>
       </c>
@@ -5481,7 +5482,7 @@
         <v>0.40476190476190477</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="14">
         <v>4500041379</v>
       </c>
@@ -5512,7 +5513,7 @@
         <v>0.22843294259394065</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="14" t="s">
         <v>115</v>
       </c>
@@ -5544,7 +5545,7 @@
         <v>0.40630659235303185</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="14">
         <v>4500043085</v>
       </c>
@@ -5575,7 +5576,7 @@
         <v>0.11833164395389865</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="14" t="s">
         <v>117</v>
       </c>
@@ -5606,7 +5607,7 @@
         <v>0.16153626853091377</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="14" t="s">
         <v>119</v>
       </c>
@@ -5637,7 +5638,7 @@
         <v>0.26472753518585346</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="14">
         <v>4500044403</v>
       </c>
@@ -5668,7 +5669,7 @@
         <v>0.46402132069884511</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="14" t="s">
         <v>122</v>
       </c>
@@ -5699,7 +5700,7 @@
         <v>0.25059191934621555</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="14">
         <v>4500045815</v>
       </c>
@@ -5730,7 +5731,7 @@
         <v>8.7988826815642462E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="14">
         <v>4500045655</v>
       </c>
@@ -5761,7 +5762,7 @@
         <v>0.34300791556728233</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="14">
         <v>4500046942</v>
       </c>
@@ -5792,7 +5793,7 @@
         <v>0.62222222222222223</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="14">
         <v>4500046944</v>
       </c>
@@ -5824,7 +5825,7 @@
         <v>0.219863208891422</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="14" t="s">
         <v>126</v>
       </c>
@@ -5855,7 +5856,7 @@
         <v>5.0072357769623044E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="14">
         <v>4500047544</v>
       </c>
@@ -5886,7 +5887,7 @@
         <v>0.19091718610863759</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="14">
         <v>4500047675</v>
       </c>
@@ -5917,7 +5918,7 @@
         <v>0.14976618803983063</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="14">
         <v>4500041689</v>
       </c>
@@ -5948,7 +5949,7 @@
         <v>3.0000000000000079E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="14">
         <v>4500041749</v>
       </c>
@@ -5979,7 +5980,7 @@
         <v>6.2586159360352903E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="14">
         <v>4500042083</v>
       </c>
@@ -6010,7 +6011,7 @@
         <v>0.1954028970283522</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="14">
         <v>4500042047</v>
       </c>
@@ -6041,7 +6042,7 @@
         <v>8.6410054988216804E-3</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="14">
         <v>4500042023</v>
       </c>
@@ -6072,7 +6073,7 @@
         <v>2.34375E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="14">
         <v>4500042141</v>
       </c>
@@ -6103,7 +6104,7 @@
         <v>0.16404085288735473</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="14">
         <v>4500042457</v>
       </c>
@@ -6134,7 +6135,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="14">
         <v>4500042440</v>
       </c>
@@ -6165,7 +6166,7 @@
         <v>8.4967320261437912E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="14">
         <v>4500042535</v>
       </c>
@@ -6196,7 +6197,7 @@
         <v>3.4482758620689655E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="14">
         <v>4500042502</v>
       </c>
@@ -6227,7 +6228,7 @@
         <v>9.2307692307692313E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="14">
         <v>4500042744</v>
       </c>
@@ -6258,7 +6259,7 @@
         <v>0.16514844008118185</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="14">
         <v>4500042793</v>
       </c>
@@ -6289,7 +6290,7 @@
         <v>3.6206896551724141E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="14">
         <v>4500042786</v>
       </c>
@@ -6320,7 +6321,7 @@
         <v>1.8404907975460124E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="14">
         <v>4500042881</v>
       </c>
@@ -6351,7 +6352,7 @@
         <v>7.7528089887640445E-3</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="14">
         <v>4500042959</v>
       </c>
@@ -6382,7 +6383,7 @@
         <v>1.0040160642570281E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="14">
         <v>4500042947</v>
       </c>
@@ -6413,7 +6414,7 @@
         <v>1.9471412035830124E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="14">
         <v>4500043111</v>
       </c>
@@ -6444,7 +6445,7 @@
         <v>2.6337448559665542E-4</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="14">
         <v>4500045190</v>
       </c>
@@ -6475,7 +6476,7 @@
         <v>0.12244897959183673</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="14">
         <v>4500045182</v>
       </c>
@@ -6506,7 +6507,7 @@
         <v>0.34613661814109742</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="14">
         <v>4500045179</v>
       </c>
@@ -6537,7 +6538,7 @@
         <v>7.4747474747474743E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="14">
         <v>4500045176</v>
       </c>
@@ -6568,7 +6569,7 @@
         <v>0.16190476190476191</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="14">
         <v>4500045283</v>
       </c>
@@ -6599,7 +6600,7 @@
         <v>5.2452911029448192E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="14">
         <v>4500045462</v>
       </c>
@@ -6630,7 +6631,7 @@
         <v>4.6797309154723602E-3</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="14">
         <v>4500045416</v>
       </c>
@@ -6661,7 +6662,7 @@
         <v>4.0404040404040407E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="14">
         <v>4500046133</v>
       </c>
@@ -6692,7 +6693,7 @@
         <v>1.4892844169996368E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="14">
         <v>4500046243</v>
       </c>
@@ -6723,7 +6724,7 @@
         <v>9.3078758949880672E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="14">
         <v>4500046266</v>
       </c>
@@ -6754,7 +6755,7 @@
         <v>1.0024057738572574E-4</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="14">
         <v>4500046294</v>
       </c>
@@ -6785,7 +6786,7 @@
         <v>2.6200873362445413E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="14">
         <v>4500046351</v>
       </c>
@@ -6816,7 +6817,7 @@
         <v>7.2133554952612561E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="14">
         <v>4500046348</v>
       </c>
@@ -6847,7 +6848,7 @@
         <v>2.4715338789509218E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="14">
         <v>4500046543</v>
       </c>
@@ -6878,7 +6879,7 @@
         <v>2.2877405702193369E-3</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="14">
         <v>4500046521</v>
       </c>
@@ -6909,7 +6910,7 @@
         <v>0.2059043381535039</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="14">
         <v>4500046584</v>
       </c>
@@ -6940,7 +6941,7 @@
         <v>1.4339080459770184E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="14">
         <v>4500046578</v>
       </c>
@@ -6971,7 +6972,7 @@
         <v>7.0699708454810495E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="14">
         <v>4500046792</v>
       </c>
@@ -7002,7 +7003,7 @@
         <v>2.9182317249349898E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="14">
         <v>4500047178</v>
       </c>
@@ -7033,7 +7034,7 @@
         <v>0.14513052753371661</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="14">
         <v>4500047403</v>
       </c>
@@ -7064,7 +7065,7 @@
         <v>5.9304703476482618E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="14">
         <v>4500047451</v>
       </c>
@@ -7095,7 +7096,7 @@
         <v>0.10543130990415335</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="14">
         <v>4500047439</v>
       </c>
@@ -7126,7 +7127,7 @@
         <v>2.189618761809492E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="14">
         <v>4500047467</v>
       </c>
@@ -7157,7 +7158,7 @@
         <v>2.2222222222222223E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="14">
         <v>4500047567</v>
       </c>
@@ -7188,7 +7189,7 @@
         <v>0.13043478260869565</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="14">
         <v>4500047565</v>
       </c>
@@ -7219,7 +7220,7 @@
         <v>1.3452914798206279E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="14">
         <v>4500047561</v>
       </c>
@@ -7250,7 +7251,7 @@
         <v>6.0098292295472547E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="14">
         <v>4500047548</v>
       </c>
@@ -7281,7 +7282,7 @@
         <v>3.5512215910683903E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="14">
         <v>4500047708</v>
       </c>
@@ -7312,7 +7313,7 @@
         <v>5.7714958775029447E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="14">
         <v>4500047700</v>
       </c>
@@ -7343,7 +7344,7 @@
         <v>2.4390243902439025E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="14">
         <v>4500048119</v>
       </c>
@@ -7374,7 +7375,7 @@
         <v>5.1053330802808883E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="14">
         <v>4500048196</v>
       </c>
@@ -7405,7 +7406,7 @@
         <v>0.11525180793537038</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="14">
         <v>4500048296</v>
       </c>
@@ -7436,7 +7437,7 @@
         <v>1.5491530331547706E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="14">
         <v>4500048348</v>
       </c>
@@ -7467,7 +7468,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="14">
         <v>4500048367</v>
       </c>
@@ -7498,7 +7499,7 @@
         <v>5.9967585089141004E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="14">
         <v>4500048536</v>
       </c>
@@ -7529,7 +7530,7 @@
         <v>0.15549295774647889</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="14">
         <v>4500048531</v>
       </c>
@@ -7560,7 +7561,7 @@
         <v>0.21625163826998689</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="14">
         <v>4500048509</v>
       </c>
@@ -7591,7 +7592,7 @@
         <v>0.13043478260869565</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="14">
         <v>4500048661</v>
       </c>
@@ -7622,7 +7623,7 @@
         <v>5.4271896829661471E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="14">
         <v>4500048639</v>
       </c>
@@ -7653,7 +7654,7 @@
         <v>8.771929824561403E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="14">
         <v>4500048635</v>
       </c>
@@ -7684,7 +7685,7 @@
         <v>5.8324837688469196E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="14">
         <v>4500048603</v>
       </c>
@@ -7715,7 +7716,7 @@
         <v>2.9999999999999978E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="14">
         <v>4500048820</v>
       </c>
@@ -7746,7 +7747,7 @@
         <v>6.2175697865353055E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="14">
         <v>4500048881</v>
       </c>
@@ -7777,7 +7778,7 @@
         <v>0.11439114391143912</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="14">
         <v>4500048951</v>
       </c>
@@ -7808,7 +7809,7 @@
         <v>7.5162445299031932E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="14">
         <v>4500048969</v>
       </c>
@@ -7839,7 +7840,7 @@
         <v>6.103121711680197E-3</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="14">
         <v>4500049006</v>
       </c>
@@ -7870,7 +7871,7 @@
         <v>2.9847238542890717E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="14">
         <v>4500049000</v>
       </c>
@@ -7901,7 +7902,7 @@
         <v>0.12052117263843648</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="14">
         <v>4500049075</v>
       </c>
@@ -7932,7 +7933,7 @@
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="14">
         <v>4500049051</v>
       </c>
@@ -7963,7 +7964,7 @@
         <v>3.8461538461538464E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="14">
         <v>4500049118</v>
       </c>
@@ -7994,7 +7995,7 @@
         <v>3.5634870859228007E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="14">
         <v>4500049117</v>
       </c>
@@ -8025,7 +8026,7 @@
         <v>0.10130718954248366</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="14">
         <v>4500049109</v>
       </c>
@@ -8056,7 +8057,7 @@
         <v>9.3107617896009673E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="14">
         <v>4500049100</v>
       </c>
@@ -8087,7 +8088,7 @@
         <v>3.0612244897959183E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="14">
         <v>4500049162</v>
       </c>
@@ -8118,7 +8119,7 @@
         <v>5.4545454545454543E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="14">
         <v>4500049135</v>
       </c>
@@ -8149,7 +8150,7 @@
         <v>3.7616956272675195E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="14">
         <v>4500049352</v>
       </c>
@@ -8180,7 +8181,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="14">
         <v>4500049337</v>
       </c>
@@ -8211,7 +8212,7 @@
         <v>0.14960808838361245</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="14">
         <v>4500049424</v>
       </c>
@@ -8242,7 +8243,7 @@
         <v>0.26439232409381663</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="14">
         <v>4500049422</v>
       </c>
@@ -8273,7 +8274,7 @@
         <v>7.5978031703063609E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="14">
         <v>4500049486</v>
       </c>
@@ -8304,7 +8305,7 @@
         <v>9.7291875626880645E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="14">
         <v>4500049470</v>
       </c>
@@ -8335,7 +8336,7 @@
         <v>0.22005571030640669</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="14">
         <v>4500049466</v>
       </c>
@@ -8366,7 +8367,7 @@
         <v>5.2649693184584408E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="14">
         <v>4500049552</v>
       </c>
@@ -8397,7 +8398,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="14">
         <v>4500049624</v>
       </c>
@@ -8428,7 +8429,7 @@
         <v>0.12520159283225482</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="14">
         <v>4500049620</v>
       </c>
@@ -8459,7 +8460,7 @@
         <v>2.4235572120993514E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="14">
         <v>4500049611</v>
       </c>
@@ -8490,7 +8491,7 @@
         <v>0.10659272951324707</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="14">
         <v>4500049718</v>
       </c>
@@ -8521,7 +8522,7 @@
         <v>9.8463863006799296E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="14">
         <v>4500049716</v>
       </c>
@@ -8552,7 +8553,7 @@
         <v>3.8461538461538464E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="14">
         <v>4500049714</v>
       </c>
@@ -8583,7 +8584,7 @@
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="14">
         <v>4500049713</v>
       </c>
@@ -8614,7 +8615,7 @@
         <v>4.6822742474916385E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="14">
         <v>4500049709</v>
       </c>
@@ -8645,7 +8646,7 @@
         <v>0.16460983482058097</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="14">
         <v>4500049699</v>
       </c>
@@ -8676,7 +8677,7 @@
         <v>4.8509400644022024E-2</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="14">
         <v>4500049757</v>
       </c>
@@ -8707,7 +8708,7 @@
         <v>2.9702970297029702E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="14">
         <v>4500049803</v>
       </c>
@@ -8738,7 +8739,7 @@
         <v>0.18819188191881919</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="14">
         <v>4500049781</v>
       </c>
@@ -8769,7 +8770,7 @@
         <v>9.5744680851063829E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="14">
         <v>4500049780</v>
       </c>
@@ -8800,7 +8801,7 @@
         <v>2.553191489361702E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="14">
         <v>4500049778</v>
       </c>
@@ -8831,7 +8832,7 @@
         <v>0.13507583908191464</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="14">
         <v>4500049880</v>
       </c>
@@ -8862,7 +8863,7 @@
         <v>3.614457831325301E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="14">
         <v>4500049877</v>
       </c>
@@ -8893,7 +8894,7 @@
         <v>5.490196078431305E-3</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="14">
         <v>4500049868</v>
       </c>
@@ -8924,7 +8925,7 @@
         <v>0.10517000994449358</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="14">
         <v>4500049863</v>
       </c>
@@ -8955,7 +8956,7 @@
         <v>9.3584461447910536E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="14">
         <v>4500050010</v>
       </c>
@@ -8986,7 +8987,7 @@
         <v>8.8607594936708861E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="14">
         <v>4500050009</v>
       </c>
@@ -9017,7 +9018,7 @@
         <v>0.19342793129200897</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="14">
         <v>4500050008</v>
       </c>
@@ -9048,7 +9049,7 @@
         <v>4.4461778471138844E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="14">
         <v>4500049999</v>
       </c>
@@ -9079,7 +9080,7 @@
         <v>0.15910465819721717</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="14">
         <v>4500049962</v>
       </c>
@@ -9110,7 +9111,7 @@
         <v>2.2222222222222223E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="14">
         <v>4500050154</v>
       </c>
@@ -9141,7 +9142,7 @@
         <v>9.7895276917959267E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="14">
         <v>4500050148</v>
       </c>
@@ -9172,7 +9173,7 @@
         <v>9.8481207710674271E-3</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="14">
         <v>4500050450</v>
       </c>
@@ -9203,7 +9204,7 @@
         <v>7.3817292006525217E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="14">
         <v>4500050448</v>
       </c>
@@ -9234,7 +9235,7 @@
         <v>5.1094890510948905E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="14">
         <v>4500050487</v>
       </c>
@@ -9265,7 +9266,7 @@
         <v>0.13120567375886524</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="14">
         <v>4500050477</v>
       </c>
@@ -9296,7 +9297,7 @@
         <v>9.6045197740112997E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="14">
         <v>4500050474</v>
       </c>
@@ -9327,7 +9328,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="14">
         <v>4500050472</v>
       </c>
@@ -9358,7 +9359,7 @@
         <v>2.9237735244226713E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="14">
         <v>4500050558</v>
       </c>
@@ -9389,7 +9390,7 @@
         <v>5.1285520974289532E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="14">
         <v>4500050548</v>
       </c>
@@ -9420,7 +9421,7 @@
         <v>2.0134228187919462E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="14">
         <v>4500050539</v>
       </c>
@@ -9451,7 +9452,7 @@
         <v>2.5373134328358207E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="14">
         <v>4500050530</v>
       </c>
@@ -9482,7 +9483,7 @@
         <v>2.556527667310533E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="14">
         <v>4500050506</v>
       </c>
@@ -9513,7 +9514,7 @@
         <v>9.5891959089111176E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="14">
         <v>4500050612</v>
       </c>
@@ -9544,7 +9545,7 @@
         <v>0.15227629513343799</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="14">
         <v>4500050602</v>
       </c>
@@ -9575,7 +9576,7 @@
         <v>6.6634525982299745E-3</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="14">
         <v>4500050690</v>
       </c>
@@ -9606,7 +9607,7 @@
         <v>8.6115992970123026E-2</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="14">
         <v>4500050687</v>
       </c>
@@ -9637,7 +9638,7 @@
         <v>5.3030303030303032E-2</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="14">
         <v>4500050685</v>
       </c>
@@ -9668,7 +9669,7 @@
         <v>0.15428806156782915</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="14">
         <v>4500050667</v>
       </c>
@@ -9699,7 +9700,7 @@
         <v>0.10742358078602621</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="14">
         <v>4500050755</v>
       </c>
@@ -9730,7 +9731,7 @@
         <v>7.3817292006525162E-2</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="14">
         <v>4500050826</v>
       </c>
@@ -9761,7 +9762,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="14">
         <v>4500050930</v>
       </c>
@@ -9792,7 +9793,7 @@
         <v>7.7777777777777779E-2</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="14">
         <v>4500050952</v>
       </c>
@@ -9823,7 +9824,7 @@
         <v>6.4196144488115212E-2</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="14">
         <v>4500050950</v>
       </c>
@@ -9854,7 +9855,7 @@
         <v>0.21146953405017924</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="14">
         <v>4500050946</v>
       </c>
@@ -9885,7 +9886,7 @@
         <v>0.10912779561771856</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="14">
         <v>4500051026</v>
       </c>
@@ -9916,7 +9917,7 @@
         <v>0.1091314633797564</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="14">
         <v>4500051022</v>
       </c>
@@ -9947,7 +9948,7 @@
         <v>7.8075482569864657E-2</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="14">
         <v>4500051117</v>
       </c>
@@ -9978,7 +9979,7 @@
         <v>7.7860270321720923E-2</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="14">
         <v>4500051099</v>
       </c>
@@ -10009,7 +10010,7 @@
         <v>2.6597756208244044E-2</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="14">
         <v>4500051180</v>
       </c>
@@ -10040,7 +10041,7 @@
         <v>0.19191919191919191</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="14">
         <v>4500051167</v>
       </c>
@@ -10071,7 +10072,7 @@
         <v>3.9120234164071723E-4</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="14">
         <v>4500051247</v>
       </c>
@@ -10102,7 +10103,7 @@
         <v>6.5934065934065936E-2</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="14">
         <v>4500051237</v>
       </c>
@@ -10133,7 +10134,7 @@
         <v>2.0619765091127576E-2</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="14">
         <v>4500051228</v>
       </c>
@@ -10164,7 +10165,7 @@
         <v>9.3484419263456089E-2</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="14">
         <v>4500051224</v>
       </c>
@@ -10195,7 +10196,7 @@
         <v>4.7165316817532159E-2</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="14">
         <v>4500051222</v>
       </c>
@@ -10226,7 +10227,7 @@
         <v>2.0428571428571428E-2</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="14">
         <v>4500051318</v>
       </c>
@@ -10257,7 +10258,7 @@
         <v>7.5230167738680714E-2</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="14">
         <v>4500051317</v>
       </c>
@@ -10288,7 +10289,7 @@
         <v>5.4054054054054057E-2</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="14">
         <v>4500051306</v>
       </c>
@@ -10319,7 +10320,7 @@
         <v>0.15770641992752796</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="14">
         <v>4500051409</v>
       </c>
@@ -10350,7 +10351,7 @@
         <v>5.6818181818181816E-2</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="14">
         <v>4500051407</v>
       </c>
@@ -10381,7 +10382,7 @@
         <v>5.8028199728770808E-3</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="14">
         <v>4500051471</v>
       </c>
@@ -10412,7 +10413,7 @@
         <v>9.0662323561346361E-2</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="14">
         <v>4500051462</v>
       </c>
@@ -10443,7 +10444,7 @@
         <v>9.2099519860322998E-2</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="14">
         <v>4500051519</v>
       </c>
@@ -10474,7 +10475,7 @@
         <v>0.11853398283460914</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="14">
         <v>4500051486</v>
       </c>
@@ -10505,7 +10506,7 @@
         <v>2.6315789473684209E-2</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="14">
         <v>4500051533</v>
       </c>
@@ -10536,7 +10537,7 @@
         <v>2.9999999999999916E-2</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="14">
         <v>4500051611</v>
       </c>
@@ -10567,7 +10568,7 @@
         <v>8.3829592304168574E-2</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="14">
         <v>4500051717</v>
       </c>
@@ -10598,7 +10599,7 @@
         <v>8.8078291814946613E-2</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="14">
         <v>4500051702</v>
       </c>
@@ -10629,7 +10630,7 @@
         <v>0.14730004185981613</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="14">
         <v>4500051689</v>
       </c>
@@ -10660,7 +10661,7 @@
         <v>4.5454545454545456E-2</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="14">
         <v>4500051675</v>
       </c>
@@ -10691,7 +10692,7 @@
         <v>0.10300042319085902</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="14">
         <v>4500051778</v>
       </c>
@@ -10722,7 +10723,7 @@
         <v>5.4054054054054057E-2</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="14">
         <v>4500051747</v>
       </c>
@@ -10753,7 +10754,7 @@
         <v>3.1168831168831169E-2</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="14">
         <v>4500051746</v>
       </c>
@@ -10784,7 +10785,7 @@
         <v>0.11124277884757812</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="14">
         <v>4500051899</v>
       </c>
@@ -10815,7 +10816,7 @@
         <v>6.9182389937106917E-2</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="14">
         <v>4500051962</v>
       </c>
@@ -10846,7 +10847,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="14">
         <v>4500051941</v>
       </c>
@@ -10877,7 +10878,7 @@
         <v>6.7248322147651071E-2</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="14">
         <v>4500051928</v>
       </c>
@@ -10908,7 +10909,7 @@
         <v>0.12268651085895359</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="14">
         <v>4500052173</v>
       </c>
@@ -10939,7 +10940,7 @@
         <v>7.6638965835641781E-2</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="14">
         <v>4500052226</v>
       </c>
@@ -10970,7 +10971,7 @@
         <v>4.0002208846429979E-2</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="14">
         <v>4500052358</v>
       </c>
@@ -11001,7 +11002,7 @@
         <v>6.7118377767957968E-2</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="14">
         <v>4500052355</v>
       </c>
@@ -11032,7 +11033,7 @@
         <v>5.1411589895988111E-2</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="14">
         <v>4500052354</v>
       </c>
@@ -11063,7 +11064,7 @@
         <v>7.1518914568241929E-2</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="14">
         <v>4500052326</v>
       </c>
@@ -11094,7 +11095,7 @@
         <v>4.8122982510659662E-2</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="14">
         <v>4500052568</v>
       </c>
@@ -11125,7 +11126,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="14">
         <v>4500052626</v>
       </c>
@@ -11156,7 +11157,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="14">
         <v>4500052622</v>
       </c>
@@ -11187,7 +11188,7 @@
         <v>4.7619047619047616E-2</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="14">
         <v>4500052612</v>
       </c>
@@ -11218,7 +11219,7 @@
         <v>3.0128435962069405E-2</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="14">
         <v>4500052598</v>
       </c>
@@ -11249,7 +11250,7 @@
         <v>5.0086355785837651E-2</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="14">
         <v>4500052587</v>
       </c>
@@ -11280,7 +11281,7 @@
         <v>4.0593226817521595E-2</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="14">
         <v>4500052576</v>
       </c>
@@ -11311,7 +11312,7 @@
         <v>1.6339869281045753E-2</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="14">
         <v>4500052823</v>
       </c>
@@ -11342,7 +11343,7 @@
         <v>9.6846743470877135E-3</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="14">
         <v>4500052820</v>
       </c>
@@ -11373,7 +11374,7 @@
         <v>5.0000000000000037E-2</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="14">
         <v>4500052890</v>
       </c>
@@ -11404,7 +11405,7 @@
         <v>7.407407407407407E-2</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="14">
         <v>4500052826</v>
       </c>
@@ -11435,7 +11436,7 @@
         <v>4.0691545435378514E-2</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="14">
         <v>4500052987</v>
       </c>
@@ -11466,7 +11467,7 @@
         <v>0.15952054131797019</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="14">
         <v>4500052986</v>
       </c>
@@ -11497,7 +11498,7 @@
         <v>0.14488221805294976</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="14">
         <v>4500053047</v>
       </c>
@@ -11528,7 +11529,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="14">
         <v>4500053147</v>
       </c>
@@ -11559,7 +11560,7 @@
         <v>0.1539543912588873</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="14">
         <v>4500053324</v>
       </c>
@@ -11590,7 +11591,7 @@
         <v>4.7619047619047616E-2</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="14">
         <v>4500053577</v>
       </c>
@@ -11621,7 +11622,7 @@
         <v>5.0000000000000065E-2</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="14">
         <v>4500052371</v>
       </c>
@@ -11652,7 +11653,7 @@
         <v>8.7093153759820421E-2</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="14">
         <v>4500052372</v>
       </c>
@@ -11683,7 +11684,7 @@
         <v>9.324009324009324E-3</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="14">
         <v>4500052408</v>
       </c>
@@ -11714,7 +11715,7 @@
         <v>0.74487004103967169</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="14">
         <v>4500052468</v>
       </c>
@@ -11745,7 +11746,7 @@
         <v>1.9784172661870502E-2</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="14">
         <v>4500052538</v>
       </c>
@@ -11776,7 +11777,7 @@
         <v>3.6717062634989188E-2</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="14">
         <v>4500052655</v>
       </c>
@@ -11807,7 +11808,7 @@
         <v>3.6717062634989209E-2</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="14">
         <v>4500052658</v>
       </c>
@@ -11838,7 +11839,7 @@
         <v>1.4851485148514851E-2</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="14">
         <v>4500052845</v>
       </c>
@@ -11869,7 +11870,7 @@
         <v>0.16107382550335569</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="14">
         <v>4500052913</v>
       </c>
@@ -11900,7 +11901,7 @@
         <v>0.14358892268288784</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="14">
         <v>4500053033</v>
       </c>
@@ -11931,7 +11932,7 @@
         <v>3.5714285714285712E-2</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="14">
         <v>4500052999</v>
       </c>
@@ -11962,7 +11963,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="14">
         <v>4500053052</v>
       </c>
@@ -11993,7 +11994,7 @@
         <v>5.0807217473884142E-2</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="14">
         <v>4500053159</v>
       </c>
@@ -12024,7 +12025,7 @@
         <v>0.11235955056179775</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="14">
         <v>4500053171</v>
       </c>
@@ -12055,7 +12056,7 @@
         <v>2.1190191076170112E-2</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="14">
         <v>4500053227</v>
       </c>
@@ -12086,7 +12087,7 @@
         <v>0.1671111111111111</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="14">
         <v>4500053320</v>
       </c>
@@ -12117,7 +12118,7 @@
         <v>5.3191489361702128E-2</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="14">
         <v>4500053504</v>
       </c>
@@ -12148,7 +12149,7 @@
         <v>0.17699115044247787</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="14">
         <v>4500053534</v>
       </c>
@@ -12179,7 +12180,7 @@
         <v>0.10252728317059161</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="14">
         <v>4500053531</v>
       </c>
@@ -12210,7 +12211,7 @@
         <v>8.0533513685352207E-2</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="14">
         <v>4500053532</v>
       </c>
@@ -12241,7 +12242,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="14">
         <v>4500053567</v>
       </c>
@@ -12272,7 +12273,7 @@
         <v>5.9999999999999921E-2</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="14">
         <v>4500053581</v>
       </c>
@@ -12303,7 +12304,7 @@
         <v>3.0000760355085875E-2</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="14" t="s">
         <v>197</v>
       </c>
@@ -12334,7 +12335,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="14">
         <v>4500052491</v>
       </c>
@@ -12365,7 +12366,7 @@
         <v>0.10809471038916543</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="14">
         <v>4500053024</v>
       </c>
@@ -12396,7 +12397,7 @@
         <v>6.4045336335054145E-2</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="14">
         <v>4500044747</v>
       </c>
@@ -12427,7 +12428,7 @@
         <v>7.5648232985307859E-2</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="14">
         <v>4500052085</v>
       </c>
@@ -12458,7 +12459,7 @@
         <v>5.0104384133611693E-2</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="14">
         <v>4500052521</v>
       </c>
@@ -12489,7 +12490,7 @@
         <v>5.3320018240906965E-2</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="14">
         <v>4500045027</v>
       </c>
@@ -12520,7 +12521,7 @@
         <v>5.2391383880597997E-2</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="14">
         <v>4500050150</v>
       </c>
@@ -12551,7 +12552,7 @@
         <v>0.26315789473684209</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="14">
         <v>4500051133</v>
       </c>
@@ -12582,7 +12583,7 @@
         <v>1.6973988777853659E-2</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="14">
         <v>4500048582</v>
       </c>
@@ -12613,7 +12614,7 @@
         <v>2.164986619987519E-2</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="14">
         <v>4500051947</v>
       </c>
@@ -12644,7 +12645,7 @@
         <v>0.23253090413939978</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="14">
         <v>4500044723</v>
       </c>
@@ -12675,7 +12676,7 @@
         <v>8.9663049685893781E-2</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="14">
         <v>4500045149</v>
       </c>
@@ -12706,7 +12707,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="14">
         <v>4500045295</v>
       </c>
@@ -12737,7 +12738,7 @@
         <v>0.28000544228264873</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="14">
         <v>4500053295</v>
       </c>
@@ -12768,7 +12769,7 @@
         <v>4.5984352546702856E-2</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="14">
         <v>4500051173</v>
       </c>
@@ -12799,7 +12800,7 @@
         <v>5.017969690960019E-2</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="14">
         <v>4500051232</v>
       </c>
@@ -12830,7 +12831,7 @@
         <v>2.0294804838300276E-2</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="14">
         <v>4500052801</v>
       </c>
@@ -12861,7 +12862,7 @@
         <v>5.4333061668024991E-2</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="14">
         <v>4500051184</v>
       </c>
@@ -12892,7 +12893,7 @@
         <v>4.0986413974197909E-2</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="14">
         <v>4500051511</v>
       </c>
@@ -12923,7 +12924,7 @@
         <v>4.6762589928057555E-2</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="14">
         <v>4500046915</v>
       </c>
@@ -12954,7 +12955,7 @@
         <v>4.8185603807257588E-2</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="14">
         <v>4500047012</v>
       </c>
@@ -12985,7 +12986,7 @@
         <v>2.7066446053917042E-2</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="14">
         <v>4500049379</v>
       </c>
@@ -13016,7 +13017,7 @@
         <v>1.6548667472514822E-2</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="14">
         <v>4500051965</v>
       </c>
@@ -13047,7 +13048,7 @@
         <v>2.7047600922996407E-2</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="14">
         <v>4500051963</v>
       </c>
@@ -13078,7 +13079,7 @@
         <v>0.10472392638036809</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="14">
         <v>4500051525</v>
       </c>
@@ -13109,7 +13110,7 @@
         <v>0.14998266201887106</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="14">
         <v>4500052561</v>
       </c>
@@ -13140,7 +13141,7 @@
         <v>2.4965530825290527E-2</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="14">
         <v>4500051571</v>
       </c>
@@ -13171,7 +13172,7 @@
         <v>1.7528858486532708E-2</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="14">
         <v>4500051568</v>
       </c>
@@ -13202,7 +13203,7 @@
         <v>1.6914191419141914E-2</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="14">
         <v>4500053304</v>
       </c>
@@ -13233,7 +13234,7 @@
         <v>4.3478260869565216E-2</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="14">
         <v>4500051028</v>
       </c>
@@ -13264,7 +13265,7 @@
         <v>3.5087719298245612E-2</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="14">
         <v>4500052094</v>
       </c>
@@ -13295,7 +13296,7 @@
         <v>2.0884093282283328E-2</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="14">
         <v>4500051958</v>
       </c>
@@ -13326,7 +13327,7 @@
         <v>1.5360027219168067E-2</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="14">
         <v>4500048995</v>
       </c>
@@ -13357,7 +13358,7 @@
         <v>0.12034497112788053</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="14">
         <v>4500051530</v>
       </c>
@@ -13388,7 +13389,7 @@
         <v>7.0862545495637599E-2</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="14">
         <v>4500051510</v>
       </c>
@@ -13419,7 +13420,7 @@
         <v>2.3569023569023569E-2</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="14">
         <v>4500050737</v>
       </c>
@@ -13450,7 +13451,7 @@
         <v>2.576923076923077E-2</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="14">
         <v>4500044372</v>
       </c>
@@ -13481,7 +13482,7 @@
         <v>5.0064322469982776E-2</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="14">
         <v>4500050319</v>
       </c>
@@ -13512,7 +13513,7 @@
         <v>3.5087719298245612E-2</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="14">
         <v>4500053378</v>
       </c>
@@ -13543,7 +13544,7 @@
         <v>2.5011951429390989E-2</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="14">
         <v>4500050976</v>
       </c>
@@ -13574,7 +13575,7 @@
         <v>2.0484916969637498E-2</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="14">
         <v>4500047096</v>
       </c>
@@ -13605,7 +13606,7 @@
         <v>0.2441860465116279</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="14">
         <v>4500049924</v>
       </c>
@@ -13636,7 +13637,7 @@
         <v>5.6192418594837958E-2</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="14">
         <v>4500050048</v>
       </c>
@@ -13667,7 +13668,7 @@
         <v>0.12732904341144841</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="14">
         <v>4500050054</v>
       </c>
@@ -13698,7 +13699,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="14">
         <v>4500050062</v>
       </c>
@@ -13729,7 +13730,7 @@
         <v>9.1143392689784442E-2</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="14">
         <v>4500050344</v>
       </c>
@@ -13760,7 +13761,7 @@
         <v>3.7217258444879935E-2</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="14">
         <v>4500050431</v>
       </c>
@@ -13791,7 +13792,7 @@
         <v>0.17709364607925263</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="14">
         <v>4500050429</v>
       </c>
@@ -13822,7 +13823,7 @@
         <v>0.24795900169422669</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="14">
         <v>4500050430</v>
       </c>
@@ -13853,7 +13854,7 @@
         <v>0.3181515993560427</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="14">
         <v>4500050419</v>
       </c>
@@ -13884,7 +13885,7 @@
         <v>0.14252792509205378</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="14">
         <v>4500050541</v>
       </c>
@@ -13915,7 +13916,7 @@
         <v>0.32755355129650504</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="14">
         <v>4500053825</v>
       </c>
@@ -13946,7 +13947,7 @@
         <v>6.3040875450535758E-2</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="14">
         <v>4500053860</v>
       </c>
@@ -13981,7 +13982,14 @@
       <c r="H390" s="82"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J389" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:J389" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="3700"/>
+        <filter val="37004419"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I293">
     <sortCondition ref="B2:B293"/>
   </sortState>
